--- a/我的/企业年报及表格/评价指标.xlsx
+++ b/我的/企业年报及表格/评价指标.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F17614-8D44-47A0-8E56-EAD28FFEBDEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F4881A-FA05-452C-B735-D7E7961C31F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
-    <sheet name="声网" sheetId="2" r:id="rId2"/>
-    <sheet name="百家云" sheetId="3" r:id="rId3"/>
+    <sheet name="声网" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="大华股份(已经初步编辑)" sheetId="4" r:id="rId3"/>
+    <sheet name="海康威视(已经初步编辑)" sheetId="5" r:id="rId4"/>
+    <sheet name="恒宇通信(已完成初步编辑)" sheetId="6" r:id="rId5"/>
+    <sheet name="科大讯飞(已完成初步编辑)" sheetId="7" r:id="rId6"/>
+    <sheet name="视源股份" sheetId="8" r:id="rId7"/>
+    <sheet name="微芯瑞" sheetId="9" r:id="rId8"/>
+    <sheet name="中芯通信" sheetId="10" r:id="rId9"/>
+    <sheet name="百家云" sheetId="3" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="75">
   <si>
     <t>技术创新力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +228,105 @@
   </si>
   <si>
     <t>企业规模竞争力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>228964（人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从业人数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（当年那营业收入/上年营业收入)-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业增长率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值（2021）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值（2020）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">销售费用 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,9 53,559.25</t>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,8 +373,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +413,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -334,11 +454,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -371,12 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,6 +527,80 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -667,226 +881,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="3" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="12"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -894,11 +1126,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B1A072-ED7E-4F7D-8EA7-D46E08E8D808}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55722257-9559-442F-A742-417DFDDDB456}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -916,20 +1161,20 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -937,7 +1182,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -962,7 +1207,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -977,7 +1222,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -992,7 +1237,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1007,18 +1252,18 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1037,7 +1282,7 @@
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1054,7 +1299,7 @@
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1071,7 +1316,7 @@
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1086,18 +1331,18 @@
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1114,7 +1359,7 @@
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
@@ -1135,7 +1380,7 @@
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1401,7 @@
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1173,18 +1418,18 @@
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1203,7 +1448,7 @@
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1229,13 +1474,2205 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B1A072-ED7E-4F7D-8EA7-D46E08E8D808}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959F631F-9DCD-489C-9245-2D9C2E657EBE}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.9140625" customWidth="1"/>
+    <col min="2" max="5" width="29.25" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="20">
+        <v>249710940.58000001</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="22">
+        <v>11388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="22">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="22">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="22">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="22">
+        <v>22864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="21">
+        <v>32835479336.849998</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="21">
+        <v>24567079571.029999</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3414235444.04</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="25">
+        <v>32835479336.849998</v>
+      </c>
+      <c r="I10" s="25">
+        <v>26465968181.099998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="25">
+        <v>3411546572.5799999</v>
+      </c>
+      <c r="I11" s="25">
+        <v>3411546572.5799999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="25">
+        <v>2994550730</v>
+      </c>
+      <c r="I12" s="25">
+        <v>2995579590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="25">
+        <v>30917025922.02</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B0F8AE-52B6-4B1F-A320-805D676F4E7F}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.08203125" customWidth="1"/>
+    <col min="8" max="10" width="17.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="27">
+        <v>8251645101.3900003</v>
+      </c>
+      <c r="E2" s="21">
+        <v>6378651762.4200001</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="22">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="22">
+        <v>15513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="30">
+        <v>25352</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="22">
+        <v>9296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="22">
+        <v>25352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="27">
+        <v>81420053539.270004</v>
+      </c>
+      <c r="E7" s="21">
+        <v>63503450891.779999</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="22">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="27">
+        <v>55881207612.690002</v>
+      </c>
+      <c r="E8" s="21">
+        <v>48992105193.459999</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="H8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="22">
+        <v>22864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="27">
+        <v>17510721210.470001</v>
+      </c>
+      <c r="E9" s="21">
+        <v>12671388440.5</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="28">
+        <v>22864</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="21">
+        <v>81420053539.270004</v>
+      </c>
+      <c r="J14" s="21">
+        <v>63503450891.779999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="21">
+        <v>17510721210.470001</v>
+      </c>
+      <c r="J15" s="21">
+        <v>12671388440.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="25">
+        <v>2994550730</v>
+      </c>
+      <c r="J16" s="25">
+        <v>2995579590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="25">
+        <v>65258551338.970001</v>
+      </c>
+      <c r="J18" s="25">
+        <v>59598907695.209999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4335FD2-960F-4680-A6CE-5D750BBAB7C4}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="33.75" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="38">
+        <v>17293148.09</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="H2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="28">
+        <v>48</v>
+      </c>
+      <c r="E4" s="28">
+        <v>48</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="H4" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="21">
+        <v>190958988.16</v>
+      </c>
+      <c r="E7" s="21">
+        <v>213710100.38999999</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="28">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="38">
+        <v>1349429791.3199999</v>
+      </c>
+      <c r="E8" s="38">
+        <v>437024453.25999999</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="21">
+        <v>67866044.180000007</v>
+      </c>
+      <c r="E9" s="21">
+        <v>97631961.450000003</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="28">
+        <v>122</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="21">
+        <v>190958988.16</v>
+      </c>
+      <c r="J13" s="21">
+        <v>213710100.38999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="21">
+        <v>67866044.180000007</v>
+      </c>
+      <c r="J14" s="21">
+        <v>97631961.450000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="38">
+        <v>1349429791.3199999</v>
+      </c>
+      <c r="J15" s="38">
+        <v>437024453.25999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="38">
+        <v>1498698057.9100001</v>
+      </c>
+      <c r="J16" s="38">
+        <v>571411394.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H19" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="32"/>
+      <c r="I20" s="41">
+        <v>2021</v>
+      </c>
+      <c r="J20" s="37">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="42">
+        <v>9653263.6799999997</v>
+      </c>
+      <c r="J21" s="38">
+        <v>5934502.9800000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="42">
+        <v>20054006.73</v>
+      </c>
+      <c r="J22" s="38">
+        <v>16333528.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="38">
+        <v>17293148.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H24" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="42">
+        <v>9331901.4000000004</v>
+      </c>
+      <c r="J24" s="38">
+        <v>67747.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1FBABA-F05A-41E3-BB40-4B1E54D1A30D}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.9140625" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="42">
+        <v>2829840977.5</v>
+      </c>
+      <c r="E2" s="38">
+        <v>2211061146.73</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="H2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="28">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="28">
+        <v>8367</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="28">
+        <v>8367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="32">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="9">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="21">
+        <v>18313605605.919998</v>
+      </c>
+      <c r="E7" s="21">
+        <v>13024657865.85</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="32">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="38">
+        <v>13583234164.969999</v>
+      </c>
+      <c r="E8" s="38">
+        <v>10605798712.17</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="H8" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="30">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1610718319.5599999</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1441784003.24</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="H9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="28">
+        <v>14307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="21">
+        <v>18313605605.919998</v>
+      </c>
+      <c r="J13" s="21">
+        <v>13024657865.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="21">
+        <v>1610718319.5599999</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1441784003.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="38">
+        <v>13583234164.969999</v>
+      </c>
+      <c r="J15" s="38">
+        <v>10605798712.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="38">
+        <v>31394037754.41</v>
+      </c>
+      <c r="J16" s="38">
+        <v>24836091818.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H18" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H19" s="32"/>
+      <c r="I19" s="41">
+        <v>2021</v>
+      </c>
+      <c r="J19" s="37">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="42">
+        <v>2692844410.5700002</v>
+      </c>
+      <c r="J20" s="38">
+        <v>2084441964.8800001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="42">
+        <v>1101759620.99</v>
+      </c>
+      <c r="J21" s="38">
+        <v>856632560.34000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="42">
+        <v>2829840977.5</v>
+      </c>
+      <c r="J22" s="38">
+        <v>2211061146.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="42">
+        <v>-10431988.07</v>
+      </c>
+      <c r="J23" s="38">
+        <v>16200970.390000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C0FE11-FB86-4D1F-8E96-74415E215679}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B18:B19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374E7915-F07A-44AA-9ABC-A782FDAD552B}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B18:B19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94934C14-95E4-495E-AC40-CB871012F3E4}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B18:B19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/我的/企业年报及表格/评价指标.xlsx
+++ b/我的/企业年报及表格/评价指标.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F4881A-FA05-452C-B735-D7E7961C31F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D56936-2224-4867-BE4C-B3E0AF2EC208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,17 @@
     <sheet name="海康威视(已经初步编辑)" sheetId="5" r:id="rId4"/>
     <sheet name="恒宇通信(已完成初步编辑)" sheetId="6" r:id="rId5"/>
     <sheet name="科大讯飞(已完成初步编辑)" sheetId="7" r:id="rId6"/>
-    <sheet name="视源股份" sheetId="8" r:id="rId7"/>
-    <sheet name="微芯瑞" sheetId="9" r:id="rId8"/>
+    <sheet name="视源股份(已完成部分)" sheetId="8" r:id="rId7"/>
+    <sheet name="微芯瑞(已完成部分)" sheetId="9" r:id="rId8"/>
     <sheet name="中芯通信" sheetId="10" r:id="rId9"/>
-    <sheet name="百家云" sheetId="3" state="hidden" r:id="rId10"/>
+    <sheet name="达安基因(已完成部分)" sheetId="11" r:id="rId10"/>
+    <sheet name="高奈特" sheetId="13" r:id="rId11"/>
+    <sheet name="东方电子" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet9" sheetId="19" r:id="rId13"/>
+    <sheet name="航新科技" sheetId="14" r:id="rId14"/>
+    <sheet name="中软国际" sheetId="15" r:id="rId15"/>
+    <sheet name="立方数科技" sheetId="17" r:id="rId16"/>
+    <sheet name="百家云" sheetId="3" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="225">
   <si>
     <t>技术创新力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,13 +335,463 @@
   <si>
     <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>解释</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>启用或禁用身份验证功能</t>
+  </si>
+  <si>
+    <t>authMechanisms</t>
+  </si>
+  <si>
+    <t>指定身份验证机制</t>
+  </si>
+  <si>
+    <t>authSource</t>
+  </si>
+  <si>
+    <t>指定用于身份验证的数据库名称</t>
+  </si>
+  <si>
+    <t>bindIp</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 服务器绑定的 IP 地址或网卡接口</t>
+  </si>
+  <si>
+    <t>blockWrite</t>
+  </si>
+  <si>
+    <t>禁止或允许数据库写入操作</t>
+  </si>
+  <si>
+    <t>checkpointPeriod</t>
+  </si>
+  <si>
+    <t>指定检查点（checkpoint）写入磁盘的时间间隔（单位为秒）</t>
+  </si>
+  <si>
+    <t>cpuMonitorPeriod</t>
+  </si>
+  <si>
+    <t>指定 CPU 监控信息的采样频率（单位为秒）</t>
+  </si>
+  <si>
+    <t>dbpath</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 数据文件的存储路径</t>
+  </si>
+  <si>
+    <t>diaglog</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 日志记录级别，用于调试和故障排除</t>
+  </si>
+  <si>
+    <t>directoryperdb</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 是否为每个数据库创建独立的目录</t>
+  </si>
+  <si>
+    <t>disableJavaScriptJIT</t>
+  </si>
+  <si>
+    <t>禁用或启用 MongoDB 中的 JavaScript 即时编译器（JIT）</t>
+  </si>
+  <si>
+    <t>enableEncryption</t>
+  </si>
+  <si>
+    <t>启用或禁用 MongoDB 的数据加密功能</t>
+  </si>
+  <si>
+    <t>enableFreeMonitoring</t>
+  </si>
+  <si>
+    <t>启用或禁用 MongoDB 的免费监控功能</t>
+  </si>
+  <si>
+    <t>enableHTTPInterface</t>
+  </si>
+  <si>
+    <t>启用或禁用 MongoDB 的 HTTP 接口功能</t>
+  </si>
+  <si>
+    <t>enableIpv6</t>
+  </si>
+  <si>
+    <t>启用或禁用 MongoDB 的 IPv6 支持功能</t>
+  </si>
+  <si>
+    <t>featureCompatibilityVersion</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 支持的功能版本号</t>
+  </si>
+  <si>
+    <t>filePermissions</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 数据文件和日志文件的权限控制设置</t>
+  </si>
+  <si>
+    <t>fork</t>
+  </si>
+  <si>
+    <t>在后台模式下启动 MongoDB 进程</t>
+  </si>
+  <si>
+    <t>fts</t>
+  </si>
+  <si>
+    <t>指定全文搜索（FTS）的相关配置选项</t>
+  </si>
+  <si>
+    <t>globalCursorTimeout</t>
+  </si>
+  <si>
+    <t>指定全局游标超时时间（单位为毫秒）</t>
+  </si>
+  <si>
+    <t>indexConfig</t>
+  </si>
+  <si>
+    <t>指定索引配置文件的路径</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>启用或禁用 MongoDB 的日志功能</t>
+  </si>
+  <si>
+    <t>journalCommitInterval</t>
+  </si>
+  <si>
+    <t>指定日志记录提交间隔时间（单位为毫秒）</t>
+  </si>
+  <si>
+    <t>journalOptions</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 日志文件相关的高级选项</t>
+  </si>
+  <si>
+    <t>keyFile</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 的身份验证密钥文件路径</t>
+  </si>
+  <si>
+    <t>localThresholdMS</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 数据库的本地阈值（单位为毫秒）</t>
+  </si>
+  <si>
+    <t>logappend</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 是否在日志文件的末尾追加日志</t>
+  </si>
+  <si>
+    <t>logpath</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 日志文件的路径和文件名</t>
+  </si>
+  <si>
+    <t>maintenanceMode</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 是否处于维护模式</t>
+  </si>
+  <si>
+    <t>maxConns</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 可以同时处理的最大连接数</t>
+  </si>
+  <si>
+    <t>maxConnsPerHost</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 可以同时处理的来自同一主机的最大连接数</t>
+  </si>
+  <si>
+    <t>net.maxIncomingConnections</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 可以接受的最大连接数</t>
+  </si>
+  <si>
+    <t>noAutoSplit</t>
+  </si>
+  <si>
+    <t>禁止或允许 MongoDB 自动切分数据库</t>
+  </si>
+  <si>
+    <t>noIndexBuildRetry</t>
+  </si>
+  <si>
+    <t>禁止或允许 MongoDB 在索引建立失败后重试</t>
+  </si>
+  <si>
+    <t>noprealloc</t>
+  </si>
+  <si>
+    <t>禁止或允许 MongoDB 的数据文件自动扩展</t>
+  </si>
+  <si>
+    <t>numInitialChunks</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 初始时要创建的分片数量</t>
+  </si>
+  <si>
+    <t>oplogSize</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 副本集的操作日志大小（单位为兆字节）</t>
+  </si>
+  <si>
+    <t>oplogTruncateAfterDays</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 副本集操作日志记录的保留时间（单位为天）</t>
+  </si>
+  <si>
+    <t>pidfilepath</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 进程 ID 文件的路径和文件名</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 服务器监听的端口号</t>
+  </si>
+  <si>
+    <t>processManagement</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 进程管理相关的配置选项</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>禁止或允许 MongoDB 在启动时输出冗余信息</t>
+  </si>
+  <si>
+    <t>replication</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 复制集相关的配置选项</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 安全相关的配置选项</t>
+  </si>
+  <si>
+    <t>serviceExecutor</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 服务执行器相关的配置选项</t>
+  </si>
+  <si>
+    <t>serviceManager</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 服务管理器相关的配置选项</t>
+  </si>
+  <si>
+    <t>setParameter</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 运行时参数，可以用于覆盖默认值</t>
+  </si>
+  <si>
+    <t>shardCollection</t>
+  </si>
+  <si>
+    <t>指定要分片的集合和分片键的相关信息</t>
+  </si>
+  <si>
+    <t>slowOpThresholdMs</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 慢查询日志的阈值（单位为毫秒）</t>
+  </si>
+  <si>
+    <t>slowOpSampleRate</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 慢查询采样率</t>
+  </si>
+  <si>
+    <t>ssl</t>
+  </si>
+  <si>
+    <t>指定 MongoDB SSL/TLS 相关的配置选项</t>
+  </si>
+  <si>
+    <t>sslMode</t>
+  </si>
+  <si>
+    <t>指定 MongoDB SSL/TLS 模式，用于控制 SSL/TLS 链接的安全性和可靠性</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 存储引擎相关的配置选项</t>
+  </si>
+  <si>
+    <t>systemLog</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 系统日志相关的配置选项</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 升级相关的配置选项</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>启用或禁用 MongoDB 冗长模式，输出更详细的日志</t>
+  </si>
+  <si>
+    <t>wiredTiger</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 使用的 WiredTiger 存储引擎相关的配置选项</t>
+  </si>
+  <si>
+    <t>writeConcern</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 写入操作的确认机制</t>
+  </si>
+  <si>
+    <t>syncdelay</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 在写入操作之间的同步延迟时间（单位为秒）</t>
+  </si>
+  <si>
+    <t>sysinfo</t>
+  </si>
+  <si>
+    <t>禁止或允许 MongoDB 在启动时输出系统信息</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 在启动时执行升级操作</t>
+  </si>
+  <si>
+    <t>upgradeCheck</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 是否检查和报告可用的升级版本</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 在启动时输出详细信息</t>
+  </si>
+  <si>
+    <t>wiredTigerCacheSizeGB</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的缓存大小，以 GB 为单位</t>
+  </si>
+  <si>
+    <t>wiredTigerCollectionBlockCompressor</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的集合块压缩器</t>
+  </si>
+  <si>
+    <t>wiredTigerDirectoryForIndexes</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 是否在单独的目录中存储索引文件</t>
+  </si>
+  <si>
+    <t>wiredTigerEngineConfig</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的配置选项</t>
+  </si>
+  <si>
+    <t>wiredTigerIndexPrefixCompression</t>
+  </si>
+  <si>
+    <t>启用或禁用 MongoDB 使用的 WiredTiger 存储引擎的索引前缀压缩功能</t>
+  </si>
+  <si>
+    <t>wiredTigerJournalCompressor</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的日志记录压缩器</t>
+  </si>
+  <si>
+    <t>wiredTigerMaxCacheOverflowSizeGB</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的缓存溢出大小限制，以 GB 为单位</t>
+  </si>
+  <si>
+    <t>wiredTigerStatisticsLogDelaySecs</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的统计信息记录延迟时间，以秒为单位</t>
+  </si>
+  <si>
+    <t>wiredTigerStatisticsLogFormat</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的统计信息记录格式</t>
+  </si>
+  <si>
+    <t>wiredTigerStatisticsPercentiles</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的统计信息记录分位数</t>
+  </si>
+  <si>
+    <t>wiredTigerUri</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的 URI</t>
+  </si>
+  <si>
+    <t>zlibCompressionLevel</t>
+  </si>
+  <si>
+    <t>指定 MongoDB 使用的压缩级别（从 0 到 9）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +837,40 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF374151"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF374151"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF374151"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -484,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,12 +1024,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,7 +1034,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,10 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -589,17 +1070,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,10 +1406,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="17" t="s">
         <v>62</v>
       </c>
@@ -916,7 +1424,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -930,7 +1438,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -942,7 +1450,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -952,7 +1460,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -974,7 +1482,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -988,7 +1496,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +1508,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1520,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1034,7 +1542,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1050,7 +1558,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1570,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1086,7 +1594,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1102,7 +1610,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1127,6 +1635,1699 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1238C2B-7074-4DC5-A886-CF3EF6AA84D4}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection sqref="A1:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.9140625" customWidth="1"/>
+    <col min="3" max="3" width="20.4140625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.08203125" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="8" max="10" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="35">
+        <v>2021</v>
+      </c>
+      <c r="J16" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H18" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H19" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="H15:J15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B4A5FC-A61A-434A-A1B3-C944E1F22225}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="30.25" customWidth="1"/>
+    <col min="7" max="10" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="35">
+        <v>2021</v>
+      </c>
+      <c r="J16" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H18" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H19" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD413E7-CB7A-4693-AC1B-2BB91CF79F63}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="10" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="35">
+        <v>2021</v>
+      </c>
+      <c r="J16" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H18" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H19" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C66D53-4E99-4CB6-BD8C-96512651C457}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="58.75" style="44" customWidth="1"/>
+    <col min="2" max="2" width="58.75" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A61" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A63" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A64" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A65" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A67" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A68" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" s="48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A69" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A70" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" s="48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A73" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A74" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" s="48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" s="48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" s="48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
+    <sortCondition ref="A2:A76"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350B0463-92C0-436C-AF54-B9093BEF371E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DECE2C1-7E51-4A94-86C3-7ED33B8F4A52}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DC07E6-6855-43FA-B5CA-54527D667C76}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B1A072-ED7E-4F7D-8EA7-D46E08E8D808}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1161,10 +3362,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1182,7 +3383,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1207,7 +3408,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1222,7 +3423,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1237,7 +3438,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +3464,7 @@
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1282,7 +3483,7 @@
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1299,7 +3500,7 @@
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +3517,7 @@
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +3543,7 @@
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1359,7 +3560,7 @@
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
@@ -1380,7 +3581,7 @@
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1401,7 +3602,7 @@
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1429,7 +3630,7 @@
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1448,7 +3649,7 @@
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +3679,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G18" sqref="G18:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1494,20 +3695,20 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1515,20 +3716,20 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>249710940.58000001</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="20">
         <v>11388</v>
       </c>
     </row>
@@ -1536,7 +3737,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +3746,7 @@
       <c r="G3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="20">
         <v>4483</v>
       </c>
     </row>
@@ -1553,7 +3754,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1562,13 +3763,13 @@
       <c r="G4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="20">
         <v>4770</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1577,7 +3778,7 @@
       <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="20">
         <v>402</v>
       </c>
     </row>
@@ -1592,7 +3793,7 @@
       <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="20">
         <v>22864</v>
       </c>
     </row>
@@ -1600,13 +3801,13 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>32835479336.849998</v>
       </c>
       <c r="E7" s="7"/>
@@ -1615,19 +3816,19 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>24567079571.029999</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="21" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1635,11 +3836,11 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>3414235444.04</v>
       </c>
       <c r="E9" s="7"/>
@@ -1651,7 +3852,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1662,10 +3863,10 @@
       <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="23">
         <v>32835479336.849998</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="23">
         <v>26465968181.099998</v>
       </c>
     </row>
@@ -1680,10 +3881,10 @@
       <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <v>3411546572.5799999</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <v>3411546572.5799999</v>
       </c>
     </row>
@@ -1691,7 +3892,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1704,10 +3905,10 @@
       <c r="G12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="23">
         <v>2994550730</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="23">
         <v>2995579590</v>
       </c>
     </row>
@@ -1715,7 +3916,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +3927,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1743,10 +3944,10 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="23">
         <v>30917025922.02</v>
       </c>
       <c r="I15" s="1"/>
@@ -1755,7 +3956,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1770,7 +3971,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1808,7 +4009,7 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="26" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="30.08203125" customWidth="1"/>
     <col min="8" max="10" width="17.58203125" customWidth="1"/>
@@ -1818,10 +4019,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
@@ -1831,10 +4032,10 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1842,23 +4043,23 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>8251645101.3900003</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="19">
         <v>6378651762.4200001</v>
       </c>
       <c r="F2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="20">
         <v>806</v>
       </c>
     </row>
@@ -1866,7 +4067,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1876,7 +4077,7 @@
       <c r="H3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="20">
         <v>15513</v>
       </c>
     </row>
@@ -1884,11 +4085,11 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="27">
         <v>25352</v>
       </c>
       <c r="E4" s="4"/>
@@ -1896,13 +4097,13 @@
       <c r="H4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="20">
         <v>9296</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1912,7 +4113,7 @@
       <c r="H5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="20">
         <v>25352</v>
       </c>
     </row>
@@ -1925,7 +4126,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="1" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="1">
@@ -1936,23 +4137,23 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <v>81420053539.270004</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>63503450891.779999</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="20">
         <v>1403</v>
       </c>
     </row>
@@ -1960,21 +4161,21 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>55881207612.690002</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>48992105193.459999</v>
       </c>
       <c r="F8" s="7"/>
       <c r="H8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="20">
         <v>22864</v>
       </c>
     </row>
@@ -1982,14 +4183,14 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="24">
         <v>17510721210.470001</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>12671388440.5</v>
       </c>
       <c r="F9" s="7"/>
@@ -1998,11 +4199,11 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="25">
         <v>22864</v>
       </c>
       <c r="E10" s="4"/>
@@ -2022,7 +4223,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2033,11 +4234,11 @@
       <c r="F12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="21" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2045,7 +4246,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2060,7 +4261,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -2072,10 +4273,10 @@
       <c r="H14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="19">
         <v>81420053539.270004</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <v>63503450891.779999</v>
       </c>
     </row>
@@ -2091,10 +4292,10 @@
       <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="19">
         <v>17510721210.470001</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="19">
         <v>12671388440.5</v>
       </c>
     </row>
@@ -2102,7 +4303,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2116,10 +4317,10 @@
       <c r="H16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="23">
         <v>2994550730</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="23">
         <v>2995579590</v>
       </c>
     </row>
@@ -2127,7 +4328,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -2138,13 +4339,13 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="23">
         <v>65258551338.970001</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="23">
         <v>59598907695.209999</v>
       </c>
     </row>
@@ -2173,8 +4374,8 @@
   <cols>
     <col min="1" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="33.75" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="29" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="26" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2182,10 +4383,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="17" t="s">
         <v>62</v>
       </c>
@@ -2195,10 +4396,10 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2206,23 +4407,23 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="34">
         <v>17293148.09</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="25">
         <v>26</v>
       </c>
     </row>
@@ -2230,17 +4431,17 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="25">
         <v>21</v>
       </c>
     </row>
@@ -2248,37 +4449,37 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="25">
         <v>48</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="25">
         <v>48</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="25">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="29">
         <v>7</v>
       </c>
     </row>
@@ -2291,10 +4492,10 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="32">
         <v>20</v>
       </c>
     </row>
@@ -2302,23 +4503,23 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>190958988.16</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>213710100.38999999</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="25">
         <v>122</v>
       </c>
     </row>
@@ -2326,31 +4527,31 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="34">
         <v>1349429791.3199999</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="34">
         <v>437024453.25999999</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="I8" s="34"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>67866044.180000007</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>97631961.450000003</v>
       </c>
       <c r="F9" s="7"/>
@@ -2359,11 +4560,11 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="25">
         <v>122</v>
       </c>
       <c r="E10" s="4"/>
@@ -2383,7 +4584,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2394,11 +4595,11 @@
       <c r="F12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37" t="s">
+      <c r="H12" s="33"/>
+      <c r="I12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="33" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2406,7 +4607,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2418,16 +4619,16 @@
       <c r="H13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="19">
         <v>190958988.16</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="19">
         <v>213710100.38999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -2439,10 +4640,10 @@
       <c r="H14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="19">
         <v>67866044.180000007</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <v>97631961.450000003</v>
       </c>
     </row>
@@ -2458,10 +4659,10 @@
       <c r="H15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="34">
         <v>1349429791.3199999</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="34">
         <v>437024453.25999999</v>
       </c>
     </row>
@@ -2469,7 +4670,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2480,13 +4681,13 @@
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="34">
         <v>1498698057.9100001</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="34">
         <v>571411394.13</v>
       </c>
     </row>
@@ -2494,7 +4695,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -2505,62 +4706,62 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="32"/>
-      <c r="I20" s="41">
+      <c r="H20" s="29"/>
+      <c r="I20" s="35">
         <v>2021</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="33">
         <v>2020</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="36">
         <v>9653263.6799999997</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="34">
         <v>5934502.9800000004</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="36">
         <v>20054006.73</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="34">
         <v>16333528.18</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="34">
         <v>17293148.09</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="36">
         <v>9331901.4000000004</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="34">
         <v>67747.34</v>
       </c>
     </row>
@@ -2582,8 +4783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1FBABA-F05A-41E3-BB40-4B1E54D1A30D}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2601,10 +4802,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="17" t="s">
         <v>62</v>
       </c>
@@ -2614,10 +4815,10 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2625,23 +4826,23 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="36">
         <v>2829840977.5</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="34">
         <v>2211061146.73</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2649,17 +4850,17 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="25">
         <v>3879</v>
       </c>
     </row>
@@ -2667,35 +4868,35 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="25">
         <v>8367</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="25">
         <v>8367</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="29">
         <v>227</v>
       </c>
     </row>
@@ -2708,7 +4909,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="29" t="s">
         <v>57</v>
       </c>
       <c r="I6" s="9">
@@ -2719,23 +4920,23 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>18313605605.919998</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>13024657865.85</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="29">
         <v>513</v>
       </c>
     </row>
@@ -2743,21 +4944,21 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="34">
         <v>13583234164.969999</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="34">
         <v>10605798712.17</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="27">
         <v>1103</v>
       </c>
     </row>
@@ -2765,21 +4966,21 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>1610718319.5599999</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>1441784003.24</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="25">
         <v>14307</v>
       </c>
     </row>
@@ -2787,7 +4988,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2809,7 +5010,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2820,11 +5021,11 @@
       <c r="F12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37" t="s">
+      <c r="H12" s="33"/>
+      <c r="I12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="33" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2832,7 +5033,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2844,16 +5045,16 @@
       <c r="H13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="19">
         <v>18313605605.919998</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="19">
         <v>13024657865.85</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -2865,10 +5066,10 @@
       <c r="H14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="19">
         <v>1610718319.5599999</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <v>1441784003.24</v>
       </c>
     </row>
@@ -2884,10 +5085,10 @@
       <c r="H15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="34">
         <v>13583234164.969999</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="34">
         <v>10605798712.17</v>
       </c>
     </row>
@@ -2895,7 +5096,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2906,13 +5107,13 @@
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="34">
         <v>31394037754.41</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="34">
         <v>24836091818.68</v>
       </c>
     </row>
@@ -2920,7 +5121,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -2931,62 +5132,62 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="32"/>
-      <c r="I19" s="41">
+      <c r="H19" s="29"/>
+      <c r="I19" s="35">
         <v>2021</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="33">
         <v>2020</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="36">
         <v>2692844410.5700002</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="34">
         <v>2084441964.8800001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="36">
         <v>1101759620.99</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="34">
         <v>856632560.34000003</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="36">
         <v>2829840977.5</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="34">
         <v>2211061146.73</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="36">
         <v>-10431988.07</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="34">
         <v>16200970.390000001</v>
       </c>
     </row>
@@ -3006,221 +5207,431 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C0FE11-FB86-4D1F-8E96-74415E215679}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="34.58203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20" style="43" customWidth="1"/>
+    <col min="10" max="10" width="16.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="25">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="29">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="9">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="19">
+        <v>21225711766.91</v>
+      </c>
+      <c r="E7" s="19">
+        <v>17129315322.120001</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="29">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D8" s="19">
+        <v>8530078118.1599998</v>
+      </c>
+      <c r="E8" s="19">
+        <v>7198499526.3000002</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="H8" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="9">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="19">
+        <v>757593973.86000001</v>
+      </c>
+      <c r="E9" s="19">
+        <v>61727020.700000003</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="H9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="25">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="19">
+        <v>21225711766.91</v>
+      </c>
+      <c r="J13" s="19">
+        <v>17129315322.120001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="19">
+        <v>1703493817.6199999</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1911825549.3399999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="I15" s="34">
+        <v>3763319792.8800001</v>
+      </c>
+      <c r="J15" s="34">
+        <v>3572831862.5300002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="34">
+        <v>6545741534.3599997</v>
+      </c>
+      <c r="J16" s="34">
+        <v>6076769963.7200003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>15</v>
+    </row>
+    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="H19" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="29"/>
+      <c r="I20" s="35">
+        <v>2021</v>
+      </c>
+      <c r="J20" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="36">
+        <v>371322.87</v>
+      </c>
+      <c r="J21" s="34">
+        <v>719091.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="36">
+        <v>105492912.15000001</v>
+      </c>
+      <c r="J22" s="34">
+        <v>85408138.519999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="36">
+        <v>1163313854.72</v>
+      </c>
+      <c r="J23" s="34">
+        <v>881423876.78999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="36">
+        <v>-51235614.710000001</v>
+      </c>
+      <c r="J24" s="34">
+        <v>-146245217.56999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B13:B16"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3229,221 +5640,401 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374E7915-F07A-44AA-9ABC-A782FDAD552B}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="8" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="15.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D2" s="36">
+        <v>560859120.85000002</v>
+      </c>
+      <c r="E2" s="34">
+        <v>376327453.49000001</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="H2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="29">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2718602121.5500002</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1863387214.0999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="19">
+        <v>601778469.14999998</v>
+      </c>
+      <c r="J13" s="19">
+        <v>319972560.66000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="I14" s="34">
+        <v>2850578033.9499998</v>
+      </c>
+      <c r="J14" s="34">
+        <v>2260803296.1199999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="34">
+        <v>3336011972.1300001</v>
+      </c>
+      <c r="J15" s="34">
+        <v>2734329189.8099999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>15</v>
+      <c r="H17" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="35">
+        <v>2021</v>
+      </c>
+      <c r="J18" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="H19" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="36">
+        <v>50642035.729999997</v>
+      </c>
+      <c r="J19" s="34">
+        <v>37764009.530000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="36">
+        <v>90465741.25</v>
+      </c>
+      <c r="J20" s="34">
+        <v>79371051.310000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="36">
+        <v>560859120.85000002</v>
+      </c>
+      <c r="J21" s="34">
+        <v>376327453.49000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="36">
+        <v>-27207696.559999999</v>
+      </c>
+      <c r="J22" s="34">
+        <v>8843862.6899999995</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="H17:J17"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B13:B16"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3455,7 +6046,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3469,10 +6060,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
@@ -3481,7 +6072,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3493,7 +6084,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3503,7 +6094,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -3511,7 +6102,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -3521,7 +6112,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
@@ -3539,7 +6130,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3551,7 +6142,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3561,7 +6152,7 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -3571,7 +6162,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
@@ -3589,7 +6180,7 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3603,7 +6194,7 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -3613,7 +6204,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
@@ -3625,7 +6216,7 @@
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="8" t="s">
         <v>26</v>
       </c>
@@ -3643,7 +6234,7 @@
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -3657,7 +6248,7 @@
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>

--- a/我的/企业年报及表格/评价指标.xlsx
+++ b/我的/企业年报及表格/评价指标.xlsx
@@ -3,30 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D56936-2224-4867-BE4C-B3E0AF2EC208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593C1613-9C53-4B0C-A190-AD26E2B0635F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="576" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
     <sheet name="声网" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="大华股份(已经初步编辑)" sheetId="4" r:id="rId3"/>
-    <sheet name="海康威视(已经初步编辑)" sheetId="5" r:id="rId4"/>
-    <sheet name="恒宇通信(已完成初步编辑)" sheetId="6" r:id="rId5"/>
-    <sheet name="科大讯飞(已完成初步编辑)" sheetId="7" r:id="rId6"/>
-    <sheet name="视源股份(已完成部分)" sheetId="8" r:id="rId7"/>
-    <sheet name="微芯瑞(已完成部分)" sheetId="9" r:id="rId8"/>
-    <sheet name="中芯通信" sheetId="10" r:id="rId9"/>
-    <sheet name="达安基因(已完成部分)" sheetId="11" r:id="rId10"/>
-    <sheet name="高奈特" sheetId="13" r:id="rId11"/>
-    <sheet name="东方电子" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet9" sheetId="19" r:id="rId13"/>
-    <sheet name="航新科技" sheetId="14" r:id="rId14"/>
-    <sheet name="中软国际" sheetId="15" r:id="rId15"/>
-    <sheet name="立方数科技" sheetId="17" r:id="rId16"/>
-    <sheet name="百家云" sheetId="3" state="hidden" r:id="rId17"/>
+    <sheet name="大华股份(已完成)" sheetId="4" r:id="rId3"/>
+    <sheet name="海康威视(已完成)" sheetId="5" r:id="rId4"/>
+    <sheet name="恒宇信通(已完成)" sheetId="6" r:id="rId5"/>
+    <sheet name="科大讯飞(已完成)" sheetId="7" r:id="rId6"/>
+    <sheet name="视源股份(已完成)" sheetId="8" r:id="rId7"/>
+    <sheet name="微芯瑞(已完成)" sheetId="9" r:id="rId8"/>
+    <sheet name="中兴通讯(已完成)" sheetId="10" r:id="rId9"/>
+    <sheet name="达安基因" sheetId="11" state="hidden" r:id="rId10"/>
+    <sheet name="高奈特(已完成部分)" sheetId="13" state="hidden" r:id="rId11"/>
+    <sheet name="东方电子(已完成)" sheetId="12" r:id="rId12"/>
+    <sheet name="中软国际（中软国际)" sheetId="15" state="hidden" r:id="rId13"/>
+    <sheet name="航新科技(已完成)" sheetId="14" r:id="rId14"/>
+    <sheet name="百家云" sheetId="3" state="hidden" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="78">
   <si>
     <t>技术创新力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,14 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品中自研部分所占比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品市场占有率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,18 +228,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>营业收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>228964（人）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从业人数类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,468 +312,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20,9 53,559.25</t>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配置</t>
-  </si>
-  <si>
-    <t>解释</t>
-  </si>
-  <si>
-    <t>auth</t>
-  </si>
-  <si>
-    <t>启用或禁用身份验证功能</t>
-  </si>
-  <si>
-    <t>authMechanisms</t>
-  </si>
-  <si>
-    <t>指定身份验证机制</t>
-  </si>
-  <si>
-    <t>authSource</t>
-  </si>
-  <si>
-    <t>指定用于身份验证的数据库名称</t>
-  </si>
-  <si>
-    <t>bindIp</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 服务器绑定的 IP 地址或网卡接口</t>
-  </si>
-  <si>
-    <t>blockWrite</t>
-  </si>
-  <si>
-    <t>禁止或允许数据库写入操作</t>
-  </si>
-  <si>
-    <t>checkpointPeriod</t>
-  </si>
-  <si>
-    <t>指定检查点（checkpoint）写入磁盘的时间间隔（单位为秒）</t>
-  </si>
-  <si>
-    <t>cpuMonitorPeriod</t>
-  </si>
-  <si>
-    <t>指定 CPU 监控信息的采样频率（单位为秒）</t>
-  </si>
-  <si>
-    <t>dbpath</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 数据文件的存储路径</t>
-  </si>
-  <si>
-    <t>diaglog</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 日志记录级别，用于调试和故障排除</t>
-  </si>
-  <si>
-    <t>directoryperdb</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 是否为每个数据库创建独立的目录</t>
-  </si>
-  <si>
-    <t>disableJavaScriptJIT</t>
-  </si>
-  <si>
-    <t>禁用或启用 MongoDB 中的 JavaScript 即时编译器（JIT）</t>
-  </si>
-  <si>
-    <t>enableEncryption</t>
-  </si>
-  <si>
-    <t>启用或禁用 MongoDB 的数据加密功能</t>
-  </si>
-  <si>
-    <t>enableFreeMonitoring</t>
-  </si>
-  <si>
-    <t>启用或禁用 MongoDB 的免费监控功能</t>
-  </si>
-  <si>
-    <t>enableHTTPInterface</t>
-  </si>
-  <si>
-    <t>启用或禁用 MongoDB 的 HTTP 接口功能</t>
-  </si>
-  <si>
-    <t>enableIpv6</t>
-  </si>
-  <si>
-    <t>启用或禁用 MongoDB 的 IPv6 支持功能</t>
-  </si>
-  <si>
-    <t>featureCompatibilityVersion</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 支持的功能版本号</t>
-  </si>
-  <si>
-    <t>filePermissions</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 数据文件和日志文件的权限控制设置</t>
-  </si>
-  <si>
-    <t>fork</t>
-  </si>
-  <si>
-    <t>在后台模式下启动 MongoDB 进程</t>
-  </si>
-  <si>
-    <t>fts</t>
-  </si>
-  <si>
-    <t>指定全文搜索（FTS）的相关配置选项</t>
-  </si>
-  <si>
-    <t>globalCursorTimeout</t>
-  </si>
-  <si>
-    <t>指定全局游标超时时间（单位为毫秒）</t>
-  </si>
-  <si>
-    <t>indexConfig</t>
-  </si>
-  <si>
-    <t>指定索引配置文件的路径</t>
-  </si>
-  <si>
-    <t>journal</t>
-  </si>
-  <si>
-    <t>启用或禁用 MongoDB 的日志功能</t>
-  </si>
-  <si>
-    <t>journalCommitInterval</t>
-  </si>
-  <si>
-    <t>指定日志记录提交间隔时间（单位为毫秒）</t>
-  </si>
-  <si>
-    <t>journalOptions</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 日志文件相关的高级选项</t>
-  </si>
-  <si>
-    <t>keyFile</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 的身份验证密钥文件路径</t>
-  </si>
-  <si>
-    <t>localThresholdMS</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 数据库的本地阈值（单位为毫秒）</t>
-  </si>
-  <si>
-    <t>logappend</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 是否在日志文件的末尾追加日志</t>
-  </si>
-  <si>
-    <t>logpath</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 日志文件的路径和文件名</t>
-  </si>
-  <si>
-    <t>maintenanceMode</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 是否处于维护模式</t>
-  </si>
-  <si>
-    <t>maxConns</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 可以同时处理的最大连接数</t>
-  </si>
-  <si>
-    <t>maxConnsPerHost</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 可以同时处理的来自同一主机的最大连接数</t>
-  </si>
-  <si>
-    <t>net.maxIncomingConnections</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 可以接受的最大连接数</t>
-  </si>
-  <si>
-    <t>noAutoSplit</t>
-  </si>
-  <si>
-    <t>禁止或允许 MongoDB 自动切分数据库</t>
-  </si>
-  <si>
-    <t>noIndexBuildRetry</t>
-  </si>
-  <si>
-    <t>禁止或允许 MongoDB 在索引建立失败后重试</t>
-  </si>
-  <si>
-    <t>noprealloc</t>
-  </si>
-  <si>
-    <t>禁止或允许 MongoDB 的数据文件自动扩展</t>
-  </si>
-  <si>
-    <t>numInitialChunks</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 初始时要创建的分片数量</t>
-  </si>
-  <si>
-    <t>oplogSize</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 副本集的操作日志大小（单位为兆字节）</t>
-  </si>
-  <si>
-    <t>oplogTruncateAfterDays</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 副本集操作日志记录的保留时间（单位为天）</t>
-  </si>
-  <si>
-    <t>pidfilepath</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 进程 ID 文件的路径和文件名</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 服务器监听的端口号</t>
-  </si>
-  <si>
-    <t>processManagement</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 进程管理相关的配置选项</t>
-  </si>
-  <si>
-    <t>quiet</t>
-  </si>
-  <si>
-    <t>禁止或允许 MongoDB 在启动时输出冗余信息</t>
-  </si>
-  <si>
-    <t>replication</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 复制集相关的配置选项</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 安全相关的配置选项</t>
-  </si>
-  <si>
-    <t>serviceExecutor</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 服务执行器相关的配置选项</t>
-  </si>
-  <si>
-    <t>serviceManager</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 服务管理器相关的配置选项</t>
-  </si>
-  <si>
-    <t>setParameter</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 运行时参数，可以用于覆盖默认值</t>
-  </si>
-  <si>
-    <t>shardCollection</t>
-  </si>
-  <si>
-    <t>指定要分片的集合和分片键的相关信息</t>
-  </si>
-  <si>
-    <t>slowOpThresholdMs</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 慢查询日志的阈值（单位为毫秒）</t>
-  </si>
-  <si>
-    <t>slowOpSampleRate</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 慢查询采样率</t>
-  </si>
-  <si>
-    <t>ssl</t>
-  </si>
-  <si>
-    <t>指定 MongoDB SSL/TLS 相关的配置选项</t>
-  </si>
-  <si>
-    <t>sslMode</t>
-  </si>
-  <si>
-    <t>指定 MongoDB SSL/TLS 模式，用于控制 SSL/TLS 链接的安全性和可靠性</t>
-  </si>
-  <si>
-    <t>storage</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 存储引擎相关的配置选项</t>
-  </si>
-  <si>
-    <t>systemLog</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 系统日志相关的配置选项</t>
-  </si>
-  <si>
-    <t>upgrade</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 升级相关的配置选项</t>
-  </si>
-  <si>
-    <t>verbose</t>
-  </si>
-  <si>
-    <t>启用或禁用 MongoDB 冗长模式，输出更详细的日志</t>
-  </si>
-  <si>
-    <t>wiredTiger</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 使用的 WiredTiger 存储引擎相关的配置选项</t>
-  </si>
-  <si>
-    <t>writeConcern</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 写入操作的确认机制</t>
-  </si>
-  <si>
-    <t>syncdelay</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 在写入操作之间的同步延迟时间（单位为秒）</t>
-  </si>
-  <si>
-    <t>sysinfo</t>
-  </si>
-  <si>
-    <t>禁止或允许 MongoDB 在启动时输出系统信息</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 在启动时执行升级操作</t>
-  </si>
-  <si>
-    <t>upgradeCheck</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 是否检查和报告可用的升级版本</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 在启动时输出详细信息</t>
-  </si>
-  <si>
-    <t>wiredTigerCacheSizeGB</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的缓存大小，以 GB 为单位</t>
-  </si>
-  <si>
-    <t>wiredTigerCollectionBlockCompressor</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的集合块压缩器</t>
-  </si>
-  <si>
-    <t>wiredTigerDirectoryForIndexes</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 是否在单独的目录中存储索引文件</t>
-  </si>
-  <si>
-    <t>wiredTigerEngineConfig</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的配置选项</t>
-  </si>
-  <si>
-    <t>wiredTigerIndexPrefixCompression</t>
-  </si>
-  <si>
-    <t>启用或禁用 MongoDB 使用的 WiredTiger 存储引擎的索引前缀压缩功能</t>
-  </si>
-  <si>
-    <t>wiredTigerJournalCompressor</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的日志记录压缩器</t>
-  </si>
-  <si>
-    <t>wiredTigerMaxCacheOverflowSizeGB</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的缓存溢出大小限制，以 GB 为单位</t>
-  </si>
-  <si>
-    <t>wiredTigerStatisticsLogDelaySecs</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的统计信息记录延迟时间，以秒为单位</t>
-  </si>
-  <si>
-    <t>wiredTigerStatisticsLogFormat</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的统计信息记录格式</t>
-  </si>
-  <si>
-    <t>wiredTigerStatisticsPercentiles</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的统计信息记录分位数</t>
-  </si>
-  <si>
-    <t>wiredTigerUri</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 使用的 WiredTiger 存储引擎的 URI</t>
-  </si>
-  <si>
-    <t>zlibCompressionLevel</t>
-  </si>
-  <si>
-    <t>指定 MongoDB 使用的压缩级别（从 0 到 9）</t>
+    <t>值（2021)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从业人数（2021）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从业人数（2020）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场营销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术（研发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.000000_ "/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,38 +405,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF374151"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF374151"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF374151"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -911,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -958,24 +496,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,25 +543,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,12 +569,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,6 +584,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,26 +642,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1392,7 +961,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1406,15 +975,15 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>63</v>
+      <c r="C1" s="50"/>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>23</v>
@@ -1424,7 +993,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1438,7 +1007,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1019,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1460,7 +1029,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1482,11 +1051,11 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1496,7 +1065,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +1077,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1520,7 +1089,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1542,23 +1111,23 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1570,7 +1139,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1594,7 +1163,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1610,7 +1179,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1638,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1238C2B-7074-4DC5-A886-CF3EF6AA84D4}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection sqref="A1:J20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1657,23 +1226,23 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>63</v>
+      <c r="C1" s="50"/>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1681,7 +1250,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1690,56 +1259,56 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="25"/>
+      <c r="H2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="25"/>
+      <c r="H3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="29"/>
+      <c r="H4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="29"/>
+      <c r="H5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -1750,20 +1319,20 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="25"/>
+      <c r="H6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1773,7 +1342,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1785,26 +1354,26 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="7"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>61</v>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1812,10 +1381,10 @@
       <c r="E10" s="4"/>
       <c r="F10" s="7"/>
       <c r="H10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
@@ -1829,35 +1398,35 @@
       <c r="H11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1866,15 +1435,15 @@
       <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="H13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1893,17 +1462,17 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="H15" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="H15" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1914,11 +1483,11 @@
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="35">
+      <c r="H16" s="24"/>
+      <c r="I16" s="28">
         <v>2021</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="26">
         <v>2020</v>
       </c>
     </row>
@@ -1926,7 +1495,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1935,41 +1504,41 @@
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="34"/>
+      <c r="H17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H18" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="34"/>
+      <c r="H18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="34"/>
+      <c r="H19" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="34"/>
+      <c r="H20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="H15:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1978,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B4A5FC-A61A-434A-A1B3-C944E1F22225}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1995,23 +1564,23 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>63</v>
+      <c r="C1" s="50"/>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2019,65 +1588,88 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="39">
+        <v>59881374.149999999</v>
+      </c>
+      <c r="E2" s="38">
+        <v>50925548.329999998</v>
+      </c>
       <c r="F2" s="7"/>
-      <c r="H2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="25"/>
+      <c r="H2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="20">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="37">
+        <f>I19/I21</f>
+        <v>0.14148115521472943</v>
+      </c>
+      <c r="E3" s="37">
+        <f>J19/J21</f>
+        <v>0.14155472420316795</v>
+      </c>
       <c r="F3" s="7"/>
-      <c r="H3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="25"/>
+      <c r="H3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="20">
+        <v>246</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="39">
+        <v>246</v>
+      </c>
+      <c r="E4" s="37"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="29"/>
+      <c r="H4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="24">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="37">
+        <f>I3/I7</f>
+        <v>0.20865139949109415</v>
+      </c>
+      <c r="E5" s="37"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="29"/>
+      <c r="H5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="24">
+        <v>245</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -2088,72 +1680,98 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="25"/>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="9">
+        <v>593</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D7" s="37">
+        <v>840824590.79999995</v>
+      </c>
+      <c r="E7" s="37">
+        <v>964133093.53999996</v>
+      </c>
       <c r="F7" s="7"/>
+      <c r="H7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1179</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="37">
+        <v>3464510302.5999999</v>
+      </c>
+      <c r="E8" s="37">
+        <v>16065735.98</v>
+      </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="37">
+        <v>693382719.11000001</v>
+      </c>
+      <c r="E9" s="37">
+        <v>7087437.2800000003</v>
+      </c>
       <c r="F9" s="7"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>61</v>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="20">
+        <v>1179</v>
+      </c>
+      <c r="E10" s="37"/>
       <c r="F10" s="7"/>
       <c r="H10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="I10" s="37">
+        <v>840824590.79999995</v>
+      </c>
+      <c r="J10" s="37">
+        <v>964133093.53999996</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
@@ -2167,57 +1785,81 @@
       <c r="H11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="I11" s="37">
+        <v>693382719.11000001</v>
+      </c>
+      <c r="J11" s="37">
+        <v>16065735.98</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D12" s="37">
+        <f>(I10/J10)-1</f>
+        <v>-0.12789572681013273</v>
+      </c>
+      <c r="E12" s="37"/>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="I12" s="38">
+        <v>3464510302.5999999</v>
+      </c>
+      <c r="J12" s="38">
+        <v>3507671255.5700002</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="37">
+        <f>(I11/J11)-1</f>
+        <v>42.159100832553328</v>
+      </c>
+      <c r="E13" s="37"/>
       <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="H13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="38">
+        <v>4984354174.5299997</v>
+      </c>
+      <c r="J13" s="38">
+        <v>5273818134.6899996</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="37">
+        <f>I11/I12</f>
+        <v>0.2001387378151652</v>
+      </c>
+      <c r="E14" s="37">
+        <f>J11/J12</f>
+        <v>4.5801715182083964E-3</v>
+      </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2231,32 +1873,38 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="H15" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="H15" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="37">
+        <f>I11/I13</f>
+        <v>0.13911184776017299</v>
+      </c>
+      <c r="E16" s="37">
+        <f>J11/J13</f>
+        <v>3.0463196814321625E-3</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="35">
+      <c r="H16" s="24"/>
+      <c r="I16" s="28">
         <v>2021</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="26">
         <v>2020</v>
       </c>
     </row>
@@ -2264,50 +1912,82 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="37">
+        <f>I10/I7</f>
+        <v>713167.59185750631</v>
+      </c>
+      <c r="E17" s="37"/>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="34"/>
+      <c r="H17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="39">
+        <v>17893262.73</v>
+      </c>
+      <c r="J17" s="38">
+        <v>17421327.050000001</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H18" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="34"/>
+      <c r="H18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="39">
+        <v>235487077.16</v>
+      </c>
+      <c r="J18" s="38">
+        <v>180487988.84999999</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="34"/>
+      <c r="H19" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="39">
+        <v>59881374.149999999</v>
+      </c>
+      <c r="J19" s="38">
+        <v>50925548.329999998</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="34"/>
+      <c r="H20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="39">
+        <v>109984576.67</v>
+      </c>
+      <c r="J20" s="38">
+        <v>110923869.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="38">
+        <f>SUM(I17,I18,I19,I20)</f>
+        <v>423246290.70999998</v>
+      </c>
+      <c r="J21" s="38">
+        <f>SUM(J17,J18,J19,J20)</f>
+        <v>359758733.71000004</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2316,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD413E7-CB7A-4693-AC1B-2BB91CF79F63}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2327,32 +2007,565 @@
     <col min="1" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="10" width="23.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="39">
+        <v>142645315.28999999</v>
+      </c>
+      <c r="E2" s="38">
+        <v>109644322.06</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="H2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="39">
+        <v>578</v>
+      </c>
+      <c r="J2" s="9">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="37">
+        <f>I20/I22</f>
+        <v>0.32404848405214415</v>
+      </c>
+      <c r="E3" s="37">
+        <f>J20/J22</f>
+        <v>0.26859400506595449</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="H3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="39">
+        <v>3547</v>
+      </c>
+      <c r="J3" s="22">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="39">
+        <v>3547</v>
+      </c>
+      <c r="E4" s="22">
+        <v>3489</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="H4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="39">
+        <v>77</v>
+      </c>
+      <c r="J4" s="9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="37">
+        <f>I3/I8</f>
+        <v>0.61239640883977897</v>
+      </c>
+      <c r="E5" s="37">
+        <f>J3/J8</f>
+        <v>0.61588702559576347</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="H5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="39">
+        <v>406</v>
+      </c>
+      <c r="J5" s="9">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="38">
+        <v>1065</v>
+      </c>
+      <c r="J6" s="9">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="37">
+        <v>4485560201.5900002</v>
+      </c>
+      <c r="E7" s="37">
+        <v>3757268060.5799999</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="38">
+        <v>119</v>
+      </c>
+      <c r="J7" s="9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="38">
+        <v>3528441332.4899998</v>
+      </c>
+      <c r="E8" s="38">
+        <v>3396734183.1999998</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="H8" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="39">
+        <v>5792</v>
+      </c>
+      <c r="J8" s="22">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="37">
+        <v>419418640.55000001</v>
+      </c>
+      <c r="E9" s="37">
+        <v>325057605.19</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="39">
+        <v>5792</v>
+      </c>
+      <c r="E10" s="22">
+        <v>5665</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="37">
+        <v>4485560201.5900002</v>
+      </c>
+      <c r="J11" s="37">
+        <v>3757268060.5799999</v>
+      </c>
+      <c r="K11" s="59">
+        <v>3418615326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="37">
+        <f>(I11/J11)-1</f>
+        <v>0.19383555532036634</v>
+      </c>
+      <c r="E12" s="37">
+        <f>(J11/K11)-1</f>
+        <v>9.9061374938678837E-2</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="37">
+        <v>419418640.55000001</v>
+      </c>
+      <c r="J12" s="37">
+        <v>325057605.19</v>
+      </c>
+      <c r="K12" s="59">
+        <v>54511171.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="37">
+        <f>(I12/J12)-1</f>
+        <v>0.29029019427139646</v>
+      </c>
+      <c r="E13" s="37">
+        <f>(J12/K12)-1</f>
+        <v>4.9631373868488664</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="58">
+        <v>3528441332.4899998</v>
+      </c>
+      <c r="J13" s="58">
+        <v>3396734183.1999998</v>
+      </c>
+      <c r="K13" s="59">
+        <v>3556958582.1199999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="37">
+        <f>I12/I13</f>
+        <v>0.1188679649249032</v>
+      </c>
+      <c r="E14" s="37">
+        <f>J12/J13</f>
+        <v>9.5697098347498386E-2</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="58">
+        <v>5278247571.5900002</v>
+      </c>
+      <c r="J14" s="58">
+        <v>4833783199.8299999</v>
+      </c>
+      <c r="K14" s="59">
+        <v>4693221319.6300001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="37">
+        <f>I12/I14</f>
+        <v>7.9461721880479327E-2</v>
+      </c>
+      <c r="E16" s="37">
+        <f>I12/I14</f>
+        <v>7.9461721880479327E-2</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="37">
+        <f>I11/I8</f>
+        <v>774440.64253970992</v>
+      </c>
+      <c r="E17" s="37">
+        <f>J11/J8</f>
+        <v>663242.37609532219</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="28">
+        <v>2021</v>
+      </c>
+      <c r="J17" s="26">
+        <v>2020</v>
+      </c>
+      <c r="K17" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="39">
+        <v>205488694.09999999</v>
+      </c>
+      <c r="J18" s="38">
+        <v>199239483.41</v>
+      </c>
+      <c r="K18" s="27">
+        <v>187407235.91999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="39">
+        <v>93982076.769999996</v>
+      </c>
+      <c r="J19" s="38">
+        <v>84255116.560000002</v>
+      </c>
+      <c r="K19" s="27">
+        <v>94112194.239999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="39">
+        <v>142645315.28999999</v>
+      </c>
+      <c r="J20" s="38">
+        <v>109644322.06</v>
+      </c>
+      <c r="K20" s="27">
+        <v>85541917.260000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="39">
+        <v>-1918639.45</v>
+      </c>
+      <c r="J21" s="38">
+        <v>15076898.1</v>
+      </c>
+      <c r="K21" s="27">
+        <v>-3639402.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="38">
+        <f>SUM(I18,I19,I20,I21)</f>
+        <v>440197446.70999998</v>
+      </c>
+      <c r="J22" s="38">
+        <f>SUM(J18,J19,J20,J21)</f>
+        <v>408215820.13000005</v>
+      </c>
+      <c r="K22" s="27">
+        <f>SUM(K18,K19,K20,K21)</f>
+        <v>363421945.37999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DECE2C1-7E51-4A94-86C3-7ED33B8F4A52}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="7" max="10" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>63</v>
+      <c r="C1" s="50"/>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2360,7 +2573,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2369,56 +2582,56 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="25"/>
+      <c r="H2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="25"/>
+      <c r="H3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="29"/>
+      <c r="H4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="29"/>
+      <c r="H5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -2429,20 +2642,20 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="25"/>
+      <c r="H6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2452,7 +2665,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2464,26 +2677,26 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="7"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>61</v>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2491,10 +2704,10 @@
       <c r="E10" s="4"/>
       <c r="F10" s="7"/>
       <c r="H10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
@@ -2508,35 +2721,35 @@
       <c r="H11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2545,15 +2758,15 @@
       <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="H13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -2572,17 +2785,17 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="H15" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="H15" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2593,11 +2806,11 @@
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="35">
+      <c r="H16" s="24"/>
+      <c r="I16" s="28">
         <v>2021</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="26">
         <v>2020</v>
       </c>
     </row>
@@ -2605,7 +2818,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -2614,673 +2827,42 @@
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="34"/>
+      <c r="H17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H18" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="34"/>
+      <c r="H18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="34"/>
+      <c r="H19" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="34"/>
+      <c r="H20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C66D53-4E99-4CB6-BD8C-96512651C457}">
-  <dimension ref="A1:B76"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="58.75" style="44" customWidth="1"/>
-    <col min="2" max="2" width="58.75" style="45" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" s="48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="48" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="B55" s="48" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="B56" s="48" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B57" s="48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="B58" s="48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="B59" s="48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B60" s="48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A61" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" s="48" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B62" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A63" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A64" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B64" s="48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A65" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="48" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="B66" s="48" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A67" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="B67" s="48" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A68" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="B68" s="48" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A69" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="B69" s="48" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A70" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70" s="48" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="B71" s="48" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="B72" s="48" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A73" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="B73" s="48" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A74" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="B74" s="48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="B75" s="48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="B76" s="48" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
-    <sortCondition ref="A2:A76"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3288,46 +2870,531 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350B0463-92C0-436C-AF54-B9093BEF371E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="10" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="39">
+        <v>56488349.770000003</v>
+      </c>
+      <c r="E2" s="38">
+        <v>45573773.340000004</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="H2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="20">
+        <v>67</v>
+      </c>
+      <c r="J2" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="37">
+        <f>I19/I21</f>
+        <v>0.18148734950160594</v>
+      </c>
+      <c r="E3" s="37">
+        <f>J19/J21</f>
+        <v>0.14710821784308015</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="H3" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="20">
+        <v>506</v>
+      </c>
+      <c r="J3" s="9">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="39">
+        <v>506</v>
+      </c>
+      <c r="E4" s="9">
+        <v>388</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="H4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="24">
+        <v>40</v>
+      </c>
+      <c r="J4" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="37">
+        <f>I3/I7</f>
+        <v>0.39811172305271442</v>
+      </c>
+      <c r="E5" s="37">
+        <f>J3/J7</f>
+        <v>0.33021276595744681</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="H5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="24">
+        <v>157</v>
+      </c>
+      <c r="J5" s="9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="9">
+        <v>501</v>
+      </c>
+      <c r="J6" s="9">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="37">
+        <v>1160148829.1500001</v>
+      </c>
+      <c r="E7" s="37">
+        <v>1223635327.1800001</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1271</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="38">
+        <v>751662265.59000003</v>
+      </c>
+      <c r="E8" s="38">
+        <v>736116975.38999999</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="H8" s="60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="37">
+        <v>22048801.41</v>
+      </c>
+      <c r="E9" s="37">
+        <v>383610629.31999999</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1271</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1175</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1160148829.1500001</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1223635327.1800001</v>
+      </c>
+      <c r="K10" s="59">
+        <v>1434985114.4400001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="17">
+        <v>22048801.41</v>
+      </c>
+      <c r="J11" s="17">
+        <v>383610629.31999999</v>
+      </c>
+      <c r="K11" s="59">
+        <v>66190989.840000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="37">
+        <f>(I10/J10)-1</f>
+        <v>-5.1883511876296917E-2</v>
+      </c>
+      <c r="E12" s="37">
+        <f>(J10/K10)-1</f>
+        <v>-0.14728360951847141</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="59">
+        <v>751662265.59000003</v>
+      </c>
+      <c r="J12" s="59">
+        <v>736116975.38999999</v>
+      </c>
+      <c r="K12" s="59">
+        <v>717232684.53999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="37">
+        <f>(I11/J11)-1</f>
+        <v>-0.9425229654113485</v>
+      </c>
+      <c r="E13" s="37">
+        <f>(J11/K11)-1</f>
+        <v>4.795511296133836</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="59">
+        <v>2056238269.8399999</v>
+      </c>
+      <c r="J13" s="59">
+        <v>2067760949.45</v>
+      </c>
+      <c r="K13" s="59">
+        <v>1797539146.6700001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="37">
+        <f>I11/I12</f>
+        <v>2.9333388703094335E-2</v>
+      </c>
+      <c r="E14" s="37">
+        <f>I11/I12</f>
+        <v>2.9333388703094335E-2</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="37">
+        <f>I11/I13</f>
+        <v>1.0722882524560572E-2</v>
+      </c>
+      <c r="E16" s="37">
+        <f>J11/J13</f>
+        <v>0.18551981524848696</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="28">
+        <v>2021</v>
+      </c>
+      <c r="J16" s="26">
+        <v>2020</v>
+      </c>
+      <c r="K16" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="37">
+        <f>I10/I7</f>
+        <v>912784.28729346977</v>
+      </c>
+      <c r="E17" s="37">
+        <f>(J10/J7)</f>
+        <v>1041391.767812766</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="29">
+        <v>29738222.66</v>
+      </c>
+      <c r="J17" s="27">
+        <v>27757876.239999998</v>
+      </c>
+      <c r="K17" s="27">
+        <v>29945248.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H18" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="29">
+        <v>189632009.09</v>
+      </c>
+      <c r="J18" s="27">
+        <v>192745830.81999999</v>
+      </c>
+      <c r="K18" s="27">
+        <v>195683582.13999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="29">
+        <v>56488349.770000003</v>
+      </c>
+      <c r="J19" s="27">
+        <v>45573773.340000004</v>
+      </c>
+      <c r="K19" s="27">
+        <v>37574791.399999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="29">
+        <v>35393689.920000002</v>
+      </c>
+      <c r="J20" s="27">
+        <v>43720123.079999998</v>
+      </c>
+      <c r="K20" s="27">
+        <v>30703782.940000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="27">
+        <f>SUM(I17,I18,I19,I20)</f>
+        <v>311252271.44</v>
+      </c>
+      <c r="J21" s="27">
+        <f>SUM(J17,J18,J19,J20)</f>
+        <v>309797603.48000002</v>
+      </c>
+      <c r="K21" s="27">
+        <f>SUM(K17,K18,K19,K20)</f>
+        <v>293907404.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DECE2C1-7E51-4A94-86C3-7ED33B8F4A52}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DC07E6-6855-43FA-B5CA-54527D667C76}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B1A072-ED7E-4F7D-8EA7-D46E08E8D808}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3362,58 +3429,58 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="39"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="1"/>
@@ -3423,12 +3490,12 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="1"/>
@@ -3438,12 +3505,12 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="1"/>
@@ -3464,17 +3531,17 @@
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>49</v>
+      <c r="B7" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3483,15 +3550,15 @@
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3500,15 +3567,15 @@
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3517,12 +3584,12 @@
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
@@ -3543,14 +3610,14 @@
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
@@ -3560,28 +3627,28 @@
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -3589,20 +3656,20 @@
         <v>20</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
@@ -3610,7 +3677,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -3630,7 +3697,7 @@
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3640,7 +3707,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3649,7 +3716,7 @@
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
@@ -3676,113 +3743,154 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959F631F-9DCD-489C-9245-2D9C2E657EBE}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.9140625" customWidth="1"/>
-    <col min="2" max="5" width="29.25" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" customWidth="1"/>
-    <col min="9" max="9" width="22.08203125" customWidth="1"/>
+    <col min="2" max="6" width="29.25" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H1" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="41">
         <v>249710940.58000001</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="20">
+      <c r="E2" s="38">
+        <v>2342474614.79</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="H2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="22">
         <v>11388</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J2" s="22">
+        <v>8998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="G3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="20">
+      <c r="D3" s="37">
+        <f>I22/I24</f>
+        <v>0.48072422478489774</v>
+      </c>
+      <c r="E3" s="37">
+        <f>J22/J24</f>
+        <v>0.5207776598389513</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="H3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="22">
         <v>4483</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J3" s="22">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="20">
+      <c r="D4" s="22">
+        <v>11388</v>
+      </c>
+      <c r="E4" s="22">
+        <v>8998</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="H4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="22">
         <v>4770</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J4" s="22">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="20">
+      <c r="D5" s="37">
+        <f>I2/I7</f>
+        <v>0.49807557732680197</v>
+      </c>
+      <c r="E5" s="4">
+        <f>J2/J7</f>
+        <v>0.52159295113326765</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="H5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="22">
         <v>402</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J5" s="9">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3790,87 +3898,105 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="20">
-        <v>22864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="F6" s="6"/>
+      <c r="H6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="22">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="19">
+        <v>48</v>
+      </c>
+      <c r="D7" s="37">
         <v>32835479336.849998</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="E7" s="38">
+        <v>26465968181.099998</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="22">
+        <v>22864</v>
+      </c>
+      <c r="J7" s="22">
+        <v>17251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="37">
         <v>24567079571.029999</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="E8" s="38">
+        <v>2995579590</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="37">
         <v>3414235444.04</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="E9" s="38">
+        <v>3411546572.5799999</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="23">
-        <v>32835479336.849998</v>
-      </c>
-      <c r="I10" s="23">
-        <v>26465968181.099998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D10" s="38">
+        <v>22864</v>
+      </c>
+      <c r="E10" s="38">
+        <v>17251</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3878,65 +4004,117 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="23">
-        <v>3411546572.5799999</v>
-      </c>
-      <c r="I11" s="23">
-        <v>3411546572.5799999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="F11" s="6"/>
+      <c r="H11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="46">
+        <v>32835479336.849998</v>
+      </c>
+      <c r="J11" s="46">
+        <v>26465968181.099998</v>
+      </c>
+      <c r="K11" s="47">
+        <v>26149430652.419998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="23">
-        <v>2994550730</v>
-      </c>
-      <c r="I12" s="23">
-        <v>2995579590</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="D12" s="37">
+        <f>(I11/J11)-1</f>
+        <v>0.24066798207286544</v>
+      </c>
+      <c r="E12" s="37">
+        <f>(J11/K11)-1</f>
+        <v>1.2104949162658141E-2</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="46">
+        <v>3411546572.5799999</v>
+      </c>
+      <c r="J12" s="46">
+        <v>4757463474.8999996</v>
+      </c>
+      <c r="K12" s="47">
+        <v>3160858484.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="37">
+        <f>(I12/J12)-1</f>
+        <v>-0.28290640788330812</v>
+      </c>
+      <c r="E13" s="37">
+        <f>(J12/K12)-1</f>
+        <v>0.50511751733559618</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H13" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="46">
+        <v>2994550730</v>
+      </c>
+      <c r="J13" s="46">
+        <v>20703046780.73</v>
+      </c>
+      <c r="K13" s="47">
+        <v>15764798715.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="37">
+        <f>I12/I13</f>
+        <v>1.1392515539651586</v>
+      </c>
+      <c r="E14" s="37">
+        <f>J12/J13</f>
+        <v>0.22979533038239355</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="46">
+        <v>30917025922.02</v>
+      </c>
+      <c r="J14" s="46">
+        <v>25827894227.07</v>
+      </c>
+      <c r="K14" s="47">
+        <v>20532896739.029999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3944,49 +4122,146 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="G15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="23">
-        <v>30917025922.02</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="37">
+        <f>I12/I14</f>
+        <v>0.11034523764299714</v>
+      </c>
+      <c r="E16" s="37">
+        <f>J12/J14</f>
+        <v>0.18419865874755451</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="37">
+        <f>I11/I7</f>
+        <v>1436121.3845718158</v>
+      </c>
+      <c r="E17" s="37">
+        <f>J11/J7</f>
+        <v>1534170.0875949219</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>36</v>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H18" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="24"/>
+      <c r="I19" s="28">
+        <v>2021</v>
+      </c>
+      <c r="J19" s="26">
+        <v>2020</v>
+      </c>
+      <c r="K19" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="39">
+        <v>2259362660.46</v>
+      </c>
+      <c r="J20" s="38">
+        <v>1706397097.75</v>
+      </c>
+      <c r="K20" s="27">
+        <v>3952947275.8200002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="39">
+        <v>548096369.70000005</v>
+      </c>
+      <c r="J21" s="38">
+        <v>443452678.14999998</v>
+      </c>
+      <c r="K21" s="27">
+        <v>740880944.66999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="39">
+        <v>2610573358.3200002</v>
+      </c>
+      <c r="J22" s="38">
+        <v>2342474614.79</v>
+      </c>
+      <c r="K22" s="27">
+        <v>2794219504.2800002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H23" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="39">
+        <v>12468559.310000001</v>
+      </c>
+      <c r="J23" s="38">
+        <v>5707678.3399999999</v>
+      </c>
+      <c r="K23" s="27">
+        <v>-70077580.109999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H24" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="39">
+        <f>SUM(I20,I21,I22,I23)</f>
+        <v>5430500947.79</v>
+      </c>
+      <c r="J24" s="38">
+        <f>SUM(J20,J21,J22,J23)</f>
+        <v>4498032069.0300007</v>
+      </c>
+      <c r="K24" s="27">
+        <f>SUM(K20,K21,K22,K23)</f>
+        <v>7417970144.6600008</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B10"/>
@@ -3994,130 +4269,164 @@
     <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I24" xr:uid="{165DA97D-2298-41C2-B329-A4E856262252}">
+      <formula1>-9999999999999990000</formula1>
+      <formula2>99999999999999900000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B0F8AE-52B6-4B1F-A320-805D676F4E7F}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:J18"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="15.4140625" customWidth="1"/>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="30.08203125" customWidth="1"/>
     <col min="8" max="10" width="17.58203125" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="39"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H1" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="42">
         <v>8251645101.3900003</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="37">
         <v>6378651762.4200001</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="H2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="20">
+      <c r="H2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="22">
         <v>806</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J2" s="9">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="37">
+        <f>J24/J26</f>
+        <v>0.53762459504796789</v>
+      </c>
       <c r="F3" s="7"/>
-      <c r="H3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="20">
+      <c r="H3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="22">
         <v>15513</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J3" s="22">
+        <v>11751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="38">
         <v>25352</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="22">
+        <v>20597</v>
+      </c>
       <c r="F4" s="7"/>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="20">
+      <c r="H4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="22">
         <v>9296</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J4" s="22">
+        <v>8164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="42">
+        <f>I5/I8</f>
+        <v>1.108817354793562</v>
+      </c>
+      <c r="E5" s="37">
+        <f>J5/J8</f>
+        <v>0.48253484830736793</v>
+      </c>
       <c r="F5" s="7"/>
-      <c r="H5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="H5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="22">
         <v>25352</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J5" s="22">
+        <v>20597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4126,90 +4435,102 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="9">
         <v>382</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J6" s="9">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="24">
+        <v>48</v>
+      </c>
+      <c r="D7" s="36">
         <v>81420053539.270004</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="36">
         <v>63503450891.779999</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="H7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="20">
+      <c r="H7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="22">
         <v>1403</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J7" s="22">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="24">
-        <v>55881207612.690002</v>
-      </c>
-      <c r="E8" s="19">
-        <v>48992105193.459999</v>
+      <c r="D8" s="35">
+        <v>2994550730</v>
+      </c>
+      <c r="E8" s="35">
+        <v>2995579590</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="H8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="H8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="22">
         <v>22864</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J8" s="22">
+        <v>42685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="36">
         <v>17510721210.470001</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="36">
         <v>12671388440.5</v>
       </c>
       <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="35">
         <v>22864</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="35">
+        <v>42685</v>
+      </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4219,68 +4540,93 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D12" s="42">
+        <f>(I14/J14)-1</f>
+        <v>0.28213589019001106</v>
+      </c>
+      <c r="E12" s="37">
+        <f>(J14/K14)-1</f>
+        <v>0.10137933449341352</v>
+      </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="42">
+        <f>(I15/J15)-1</f>
+        <v>0.38191022181141854</v>
+      </c>
+      <c r="E13" s="37">
+        <f>(J15/K15)-1</f>
+        <v>1.6542405859668152E-2</v>
+      </c>
       <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="42">
+        <f>I15/I16</f>
+        <v>5.847528657652763</v>
+      </c>
+      <c r="E14" s="37">
+        <f>J15/J16</f>
+        <v>4.2300289676162466</v>
+      </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="19">
+        <v>48</v>
+      </c>
+      <c r="I14" s="17">
         <v>81420053539.270004</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="17">
         <v>63503450891.779999</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K14" s="19">
+        <v>57658110065.220001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4292,65 +4638,164 @@
       <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <v>17510721210.470001</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="17">
         <v>12671388440.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K15" s="19">
+        <v>12465184302.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="42">
+        <f>I15/I17</f>
+        <v>0.2683283776790375</v>
+      </c>
+      <c r="E16" s="37">
+        <f>J15/J17</f>
+        <v>0.21261108517796556</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="19">
         <v>2994550730</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="19">
         <v>2995579590</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K16" s="19">
+        <v>41130970570.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="42">
+        <f>I14/I8</f>
+        <v>3561059.0246356721</v>
+      </c>
+      <c r="E17" s="37">
+        <f>J14/J8</f>
+        <v>1487722.8743535199</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="23">
+      <c r="H17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="19">
         <v>65258551338.970001</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J17" s="19">
         <v>59598907695.209999</v>
       </c>
+      <c r="K17" s="19">
+        <v>52214392639.620003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="24"/>
+      <c r="I21" s="28">
+        <v>2021</v>
+      </c>
+      <c r="J21" s="26">
+        <v>2020</v>
+      </c>
+      <c r="K21" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="38">
+        <v>2854822255.21</v>
+      </c>
+      <c r="K22" s="19">
+        <v>3101749832.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H23" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="38">
+        <v>783395117.25999999</v>
+      </c>
+      <c r="K23" s="19">
+        <v>725281640.64999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H24" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="38">
+        <v>4554003406.3900003</v>
+      </c>
+      <c r="K24" s="19">
+        <v>4012212610.8499999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H25" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="38">
+        <v>278380172.69</v>
+      </c>
+      <c r="K25" s="19">
+        <v>506021681.45999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H26" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="38">
+        <f>SUM(J22,J23,J24,J25)</f>
+        <v>8470600951.5500002</v>
+      </c>
+      <c r="K26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H20:J20"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B10"/>
@@ -4358,132 +4803,166 @@
     <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I26" xr:uid="{33B86CAB-C2EC-4442-A2C9-F96D38525D04}">
+      <formula1>-9999999999999990000</formula1>
+      <formula2>99999999999999900000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4335FD2-960F-4680-A6CE-5D750BBAB7C4}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="33.75" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="26" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="21" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>63</v>
+      <c r="C1" s="50"/>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="34">
+      <c r="D2" s="39">
+        <v>20953559.25</v>
+      </c>
+      <c r="E2" s="38">
         <v>17293148.09</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="H2" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="25">
+      <c r="H2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="20">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J2" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="66">
+        <f>I23/I25</f>
+        <v>0.50699498225991502</v>
+      </c>
+      <c r="E3" s="37">
+        <f>J23/J25</f>
+        <v>0.43787402749420873</v>
+      </c>
       <c r="F3" s="7"/>
-      <c r="H3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="25">
+      <c r="H3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="20">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J3" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="39">
         <v>48</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="39">
         <v>48</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="H4" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="25">
+      <c r="H4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="20">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J4" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="37">
+        <f>I4/I7</f>
+        <v>0.39344262295081966</v>
+      </c>
+      <c r="E5" s="37">
+        <f>J4/J7</f>
+        <v>0.40540540540540543</v>
+      </c>
       <c r="F5" s="7"/>
-      <c r="H5" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="29">
+      <c r="H5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="24">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J5" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4492,85 +4971,93 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="32">
+      <c r="H6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="24">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J6" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="19">
+        <v>48</v>
+      </c>
+      <c r="D7" s="37">
         <v>190958988.16</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="37">
         <v>213710100.38999999</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="H7" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="25">
+      <c r="H7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="20">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J7" s="9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="38">
         <v>1349429791.3199999</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="38">
         <v>437024453.25999999</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="37">
         <v>67866044.180000007</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="37">
         <v>97631961.450000003</v>
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="20">
         <v>122</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="9">
+        <v>111</v>
+      </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4580,74 +5067,101 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D12" s="36">
+        <f>(I13/J13)-1</f>
+        <v>-0.10645782388610292</v>
+      </c>
+      <c r="E12" s="4">
+        <f>(J13/K13)-1</f>
+        <v>0.12221676798138437</v>
+      </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="36">
+        <f>(I14/J14)-1</f>
+        <v>-0.30487882070508165</v>
+      </c>
+      <c r="E13" s="4">
+        <f>(J14/K14)-1</f>
+        <v>0.25723745806999188</v>
+      </c>
       <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="19">
+        <v>48</v>
+      </c>
+      <c r="I13" s="37">
         <v>190958988.16</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="37">
         <v>213710100.38999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K13" s="27">
+        <v>190435668.47999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="36">
+        <f>I14/I15</f>
+        <v>5.0292386174173656E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <f>(J14/J15)</f>
+        <v>0.22340159851859728</v>
+      </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="37">
         <v>67866044.180000007</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="37">
         <v>97631961.450000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K14" s="27">
+        <v>77655943.849999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4659,110 +5173,161 @@
       <c r="H15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="38">
         <v>1349429791.3199999</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="38">
         <v>437024453.25999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K15" s="27">
+        <v>335850940.54000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="36">
+        <f>I14/I16</f>
+        <v>4.5283333638693156E-2</v>
+      </c>
+      <c r="E16" s="36">
+        <f>J14/J16</f>
+        <v>0.17086106866778381</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="34">
+      <c r="H16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="38">
         <v>1498698057.9100001</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="38">
         <v>571411394.13</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K16" s="27">
+        <v>507701446.22000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="36">
+        <f>I13/I7</f>
+        <v>1565237.6078688523</v>
+      </c>
+      <c r="E17" s="36">
+        <f>I13/I7</f>
+        <v>1565237.6078688523</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="40" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="24"/>
+      <c r="I20" s="28">
+        <v>2021</v>
+      </c>
+      <c r="J20" s="26">
+        <v>2020</v>
+      </c>
+      <c r="K20" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="39">
+        <v>9653263.6799999997</v>
+      </c>
+      <c r="J21" s="38">
+        <v>5934502.9800000004</v>
+      </c>
+      <c r="K21" s="40">
+        <v>4831176.1399999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="39">
+        <v>20054006.73</v>
+      </c>
+      <c r="J22" s="38">
+        <v>16333528.18</v>
+      </c>
+      <c r="K22" s="40">
+        <v>15408208.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H23" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="39">
+        <v>20953559.25</v>
+      </c>
+      <c r="J23" s="38">
+        <v>17293148.09</v>
+      </c>
+      <c r="K23" s="40">
+        <v>16473076.619999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H24" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="29"/>
-      <c r="I20" s="35">
-        <v>2021</v>
-      </c>
-      <c r="J20" s="33">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H21" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="36">
-        <v>9653263.6799999997</v>
-      </c>
-      <c r="J21" s="34">
-        <v>5934502.9800000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H22" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="36">
-        <v>20054006.73</v>
-      </c>
-      <c r="J22" s="34">
-        <v>16333528.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H23" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="34">
-        <v>17293148.09</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H24" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="36">
-        <v>9331901.4000000004</v>
-      </c>
-      <c r="J24" s="34">
-        <v>67747.34</v>
+      <c r="I24" s="39">
+        <v>-9331901.4000000004</v>
+      </c>
+      <c r="J24" s="38">
+        <v>-67747.34</v>
+      </c>
+      <c r="K24" s="40">
+        <v>-37605.769999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H25" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="39">
+        <f>SUM(I21,I22,I23,I24)</f>
+        <v>41328928.259999998</v>
+      </c>
+      <c r="J25" s="38">
+        <f>SUM(J21,J22,J23,J24)</f>
+        <v>39493431.909999996</v>
+      </c>
+      <c r="K25" s="40">
+        <f>SUM(K21,K22,K23,K24)</f>
+        <v>36674855.569999993</v>
       </c>
     </row>
   </sheetData>
@@ -4775,132 +5340,171 @@
     <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I25" xr:uid="{43A242FE-4D31-41BA-9043-EA7EBBAA1504}">
+      <formula1>-9999999999999990000</formula1>
+      <formula2>99999999999999900000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1FBABA-F05A-41E3-BB40-4B1E54D1A30D}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:J23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="5" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.58203125" customWidth="1"/>
+    <col min="5" max="5" width="17.9140625" customWidth="1"/>
     <col min="6" max="6" width="33.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.9140625" customWidth="1"/>
     <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="21.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>63</v>
+      <c r="C1" s="50"/>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="39">
         <v>2829840977.5</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="38">
         <v>2211061146.73</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="H2" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="25">
+      <c r="H2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="37">
+        <f>I22/I24</f>
+        <v>0.42785536837005239</v>
+      </c>
+      <c r="E3" s="37">
+        <f>J22/J24</f>
+        <v>0.42780904181367846</v>
+      </c>
       <c r="F3" s="7"/>
-      <c r="H3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="25">
+      <c r="H3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="34">
         <v>3879</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J3" s="22">
+        <v>2915</v>
+      </c>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="39">
         <v>8367</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="22">
+        <v>6461</v>
+      </c>
       <c r="F4" s="7"/>
-      <c r="H4" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="25">
+      <c r="H4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="34">
         <v>8367</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J4" s="22">
+        <v>6461</v>
+      </c>
+      <c r="K4" s="65"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="37">
+        <f>I4/I9</f>
+        <v>0.58481862025581888</v>
+      </c>
+      <c r="E5" s="37">
+        <f>J4/J9</f>
+        <v>0.58704343085589683</v>
+      </c>
       <c r="F5" s="7"/>
-      <c r="H5" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="29">
+      <c r="H5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="34">
         <v>227</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J5" s="9">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4909,94 +5513,110 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="H6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="35">
         <v>218</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J6" s="9">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="19">
+        <v>48</v>
+      </c>
+      <c r="D7" s="37">
         <v>18313605605.919998</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="37">
         <v>13024657865.85</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="H7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="29">
+      <c r="H7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="34">
         <v>513</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J7" s="9">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="38">
         <v>13583234164.969999</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="38">
         <v>10605798712.17</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="H8" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="27">
+      <c r="H8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="35">
         <v>1103</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J8" s="9">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="37">
         <v>1610718319.5599999</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="37">
         <v>1441784003.24</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="H9" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="25">
+      <c r="H9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="34">
         <v>14307</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J9" s="22">
+        <v>11006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="39">
+        <v>14307</v>
+      </c>
+      <c r="E10" s="22">
+        <v>11006</v>
+      </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5006,74 +5626,101 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D12" s="37">
+        <f>(I13/J13)-1</f>
+        <v>0.40607191333120185</v>
+      </c>
+      <c r="E12" s="37">
+        <f>(J13/K13)-1</f>
+        <v>0.29229684234074083</v>
+      </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="37">
+        <f>(I14/J14)-1</f>
+        <v>0.11717033615324346</v>
+      </c>
+      <c r="E13" s="37">
+        <f>(J14/K14)-1</f>
+        <v>0.52881894808208818</v>
+      </c>
       <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="19">
+        <v>48</v>
+      </c>
+      <c r="I13" s="37">
         <v>18313605605.919998</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="37">
         <v>13024657865.85</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K13" s="27">
+        <v>10078688919.690001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="37">
+        <f>I14/I15</f>
+        <v>0.1185813555150146</v>
+      </c>
+      <c r="E14" s="37">
+        <f>J14/J15</f>
+        <v>0.13594299141144114</v>
+      </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="37">
         <v>1610718319.5599999</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="37">
         <v>1441784003.24</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K14" s="27">
+        <v>943070469.55999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5085,110 +5732,161 @@
       <c r="H15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="38">
         <v>13583234164.969999</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="38">
         <v>10605798712.17</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K15" s="27">
+        <v>9710922610.5300007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="37">
+        <f>I14/I16</f>
+        <v>5.1306503870587286E-2</v>
+      </c>
+      <c r="E16" s="37">
+        <f>J14/J16</f>
+        <v>5.8051967828351689E-2</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="34">
+      <c r="H16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="38">
         <v>31394037754.41</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="38">
         <v>24836091818.68</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K16" s="27">
+        <v>17175439500.950001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="37">
+        <f>I13/I9</f>
+        <v>1280045.1251778847</v>
+      </c>
+      <c r="E17" s="37">
+        <f>I13/I9</f>
+        <v>1280045.1251778847</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H18" s="40" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H18" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="24"/>
+      <c r="I19" s="28">
+        <v>2021</v>
+      </c>
+      <c r="J19" s="26">
+        <v>2020</v>
+      </c>
+      <c r="K19" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="39">
+        <v>2692844410.5700002</v>
+      </c>
+      <c r="J20" s="38">
+        <v>2084441964.8800001</v>
+      </c>
+      <c r="K20" s="27">
+        <v>1780156058.8399999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="39">
+        <v>1101759620.99</v>
+      </c>
+      <c r="J21" s="38">
+        <v>856632560.34000003</v>
+      </c>
+      <c r="K21" s="27">
+        <v>706707045.55999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="39">
+        <v>2829840977.5</v>
+      </c>
+      <c r="J22" s="38">
+        <v>2211061146.73</v>
+      </c>
+      <c r="K22" s="27">
+        <v>1639545495.6099999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H23" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="29"/>
-      <c r="I19" s="35">
-        <v>2021</v>
-      </c>
-      <c r="J19" s="33">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="36">
-        <v>2692844410.5700002</v>
-      </c>
-      <c r="J20" s="34">
-        <v>2084441964.8800001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H21" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="36">
-        <v>1101759620.99</v>
-      </c>
-      <c r="J21" s="34">
-        <v>856632560.34000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H22" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="36">
-        <v>2829840977.5</v>
-      </c>
-      <c r="J22" s="34">
-        <v>2211061146.73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H23" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="36">
+      <c r="I23" s="39">
         <v>-10431988.07</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="38">
         <v>16200970.390000001</v>
+      </c>
+      <c r="K23" s="27">
+        <v>-3706986.07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H24" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="38">
+        <f>SUM(I20,I21,I22,I23)</f>
+        <v>6614013020.9900007</v>
+      </c>
+      <c r="J24" s="38">
+        <f>SUM(J20,J21,J22,J23)</f>
+        <v>5168336642.3400011</v>
+      </c>
+      <c r="K24" s="27">
+        <f>SUM(K20,K21,K22,K23)</f>
+        <v>4122701613.9399991</v>
       </c>
     </row>
   </sheetData>
@@ -5207,10 +5905,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C0FE11-FB86-4D1F-8E96-74415E215679}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:J24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5218,107 +5916,132 @@
     <col min="1" max="5" width="25.75" customWidth="1"/>
     <col min="6" max="6" width="34.58203125" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="20" style="43" customWidth="1"/>
+    <col min="9" max="9" width="20" style="31" customWidth="1"/>
     <col min="10" max="10" width="16.58203125" customWidth="1"/>
+    <col min="11" max="11" width="18.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>63</v>
+      <c r="C1" s="50"/>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="39">
+        <v>1163313854.72</v>
+      </c>
+      <c r="E2" s="38">
+        <v>881423876.78999996</v>
+      </c>
       <c r="F2" s="7"/>
-      <c r="H2" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="25">
+      <c r="H2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="37">
+        <f>I23/I25</f>
+        <v>0.33620318879692829</v>
+      </c>
+      <c r="E3" s="37">
+        <f>J23/J25</f>
+        <v>0.36241789466685886</v>
+      </c>
       <c r="F3" s="7"/>
-      <c r="H3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="25">
+      <c r="H3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="34">
         <v>1334</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J3" s="22">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="39">
+        <v>3081</v>
+      </c>
+      <c r="E4" s="63"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="25">
+      <c r="H4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="34">
         <v>3081</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J4" s="22">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="37">
+        <f>I4/I9</f>
+        <v>0.5677169707020453</v>
+      </c>
+      <c r="E5" s="37"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="29">
+      <c r="H5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="34">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5327,94 +6050,108 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="H6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="35">
         <v>637</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J6" s="9">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="19">
+        <v>48</v>
+      </c>
+      <c r="D7" s="36">
         <v>21225711766.91</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="36">
         <v>17129315322.120001</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="H7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="29">
+      <c r="H7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="34">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="36">
         <v>8530078118.1599998</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="36">
         <v>7198499526.3000002</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="H8" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="H8" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="35">
         <v>205</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J8" s="9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="36">
         <v>757593973.86000001</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="36">
         <v>61727020.700000003</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="H9" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="25">
+      <c r="H9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="34">
         <v>5427</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J9" s="22">
+        <v>4779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="34">
+        <v>5427</v>
+      </c>
+      <c r="E10" s="36"/>
       <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H10" s="31"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5424,74 +6161,101 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D12" s="37">
+        <f>(I13/J13)-1</f>
+        <v>0.23914536966343913</v>
+      </c>
+      <c r="E12" s="64">
+        <f>(J13/K13)-1</f>
+        <v>4.4927575578583845E-3</v>
+      </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="37">
+        <f>(I14/J14)-1</f>
+        <v>-0.10897005314732833</v>
+      </c>
+      <c r="E13" s="37">
+        <f>(J14/K14)-1</f>
+        <v>0.18578218945573322</v>
+      </c>
       <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="19">
+        <v>48</v>
+      </c>
+      <c r="I13" s="37">
         <v>21225711766.91</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="37">
         <v>17129315322.120001</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K13" s="38">
+        <v>17052701667.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="37">
+        <f>I14/I15</f>
+        <v>0.45265720464227333</v>
+      </c>
+      <c r="E14" s="37">
+        <f>(J14/J15)</f>
+        <v>0.53510090116196918</v>
+      </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="37">
         <v>1703493817.6199999</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="37">
         <v>1911825549.3399999</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K14" s="38">
+        <v>1612290660.4100001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5503,131 +6267,171 @@
       <c r="H15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="38">
         <v>3763319792.8800001</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="38">
         <v>3572831862.5300002</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K15" s="38">
+        <v>3136536908.3099999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="36">
+        <f>I14/I16</f>
+        <v>0.26024458935293976</v>
+      </c>
+      <c r="E16" s="36">
+        <f>J14/J16</f>
+        <v>0.31461213123980797</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="34">
+      <c r="H16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="38">
         <v>6545741534.3599997</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="38">
         <v>6076769963.7200003</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K16" s="38">
+        <v>5898906111.4399996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="36">
+        <f>I13/I9</f>
+        <v>3911131.7057140223</v>
+      </c>
+      <c r="E17" s="36">
+        <f>J13/J9</f>
+        <v>3584288.6214940366</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="24"/>
+      <c r="I20" s="28">
+        <v>2021</v>
+      </c>
+      <c r="J20" s="26">
+        <v>2020</v>
+      </c>
+      <c r="K20" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="61">
+        <v>1370338186.6800001</v>
+      </c>
+      <c r="J21" s="62">
+        <v>1008334776.91</v>
+      </c>
+      <c r="K21" s="27">
+        <v>1083518588.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="61">
+        <v>977734736.30999994</v>
+      </c>
+      <c r="J22" s="62">
+        <v>688551563.30999994</v>
+      </c>
+      <c r="K22" s="27">
+        <v>705032592.63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H23" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="61">
+        <v>1163313854.72</v>
+      </c>
+      <c r="J23" s="62">
+        <v>881423876.78999996</v>
+      </c>
+      <c r="K23" s="27">
+        <v>1001422820.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H24" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="29"/>
-      <c r="I20" s="35">
-        <v>2021</v>
-      </c>
-      <c r="J20" s="33">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H21" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="36">
-        <v>371322.87</v>
-      </c>
-      <c r="J21" s="34">
-        <v>719091.93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H22" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="36">
-        <v>105492912.15000001</v>
-      </c>
-      <c r="J22" s="34">
-        <v>85408138.519999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H23" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="36">
-        <v>1163313854.72</v>
-      </c>
-      <c r="J23" s="34">
-        <v>881423876.78999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H24" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="36">
+      <c r="I24" s="61">
         <v>-51235614.710000001</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="62">
         <v>-146245217.56999999</v>
       </c>
+      <c r="K24" s="27">
+        <v>-65104355.240000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H25" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="62">
+        <f>SUM(I21,I22,I24,I23)</f>
+        <v>3460151163</v>
+      </c>
+      <c r="J25" s="62">
+        <f>SUM(J21,J22,J23,J24)</f>
+        <v>2432064999.4399996</v>
+      </c>
+      <c r="K25" s="27">
+        <f>SUM(K21,K22,K23,K24)</f>
+        <v>2724869646.8900003</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B14"/>
@@ -5640,10 +6444,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374E7915-F07A-44AA-9ABC-A782FDAD552B}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:J22"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5651,111 +6455,144 @@
     <col min="1" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="8" max="9" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
     <col min="10" max="10" width="15.9140625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>63</v>
+      <c r="C1" s="50"/>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="34">
         <v>560859120.85000002</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="35">
         <v>376327453.49000001</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="H2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="25">
+      <c r="H2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="34">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J2" s="9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="36">
+        <f>I21/I23</f>
+        <v>0.83119892221458758</v>
+      </c>
+      <c r="E3" s="36">
+        <f>J21/J23</f>
+        <v>0.74919903609946803</v>
+      </c>
       <c r="F3" s="7"/>
-      <c r="H3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="25">
+      <c r="H3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="34">
         <v>676</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J3" s="9">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="34">
+        <v>676</v>
+      </c>
+      <c r="E4" s="9">
+        <v>581</v>
+      </c>
       <c r="F4" s="7"/>
-      <c r="H4" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="29">
+      <c r="H4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="34">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J4" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="36">
+        <f>I3/I7</f>
+        <v>0.78150289017341046</v>
+      </c>
+      <c r="E5" s="36">
+        <f>J3/J7</f>
+        <v>0.76548089591567847</v>
+      </c>
       <c r="F5" s="7"/>
-      <c r="H5" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="29">
+      <c r="H5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="34">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J5" s="9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5764,64 +6601,92 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="25">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H6" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D7" s="37">
+        <v>2718602121.5500002</v>
+      </c>
+      <c r="E7" s="37">
+        <v>1863387214.0999999</v>
+      </c>
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="34">
+        <v>865</v>
+      </c>
+      <c r="J7" s="9">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="38">
+        <v>2850578033.9499998</v>
+      </c>
+      <c r="E8" s="38">
+        <v>2260803296.1199999</v>
+      </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="37">
+        <v>601778469.14999998</v>
+      </c>
+      <c r="E9" s="37">
+        <v>319972560.66000003</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="34">
+        <v>865</v>
+      </c>
+      <c r="E10" s="9">
+        <v>759</v>
+      </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5830,84 +6695,114 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D12" s="37">
+        <f>(I12/J12)-1</f>
+        <v>0.45895716197830727</v>
+      </c>
+      <c r="E12" s="37">
+        <f>(J12/K12)-1</f>
+        <v>0.32368625742227941</v>
+      </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="19">
+        <v>48</v>
+      </c>
+      <c r="I12" s="37">
         <v>2718602121.5500002</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="37">
         <v>1863387214.0999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K12" s="19">
+        <v>1407725738.3699999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="37">
+        <f>(I13/J13)-1</f>
+        <v>0.88071898386763348</v>
+      </c>
+      <c r="E13" s="37">
+        <f>(J13/K13)-1</f>
+        <v>0.56307570200178536</v>
+      </c>
       <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="37">
         <v>601778469.14999998</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="37">
         <v>319972560.66000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K13" s="19">
+        <v>204707014.66999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="37">
+        <f>I13/I14</f>
+        <v>0.2111075234506474</v>
+      </c>
+      <c r="E14" s="37">
+        <f>J13/J14</f>
+        <v>0.14153047335393498</v>
+      </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="38">
         <v>2850578033.9499998</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="38">
         <v>2260803296.1199999</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K14" s="19">
+        <v>1727047521.1199999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5916,114 +6811,165 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="H15" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="34">
+      <c r="H15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="38">
         <v>3336011972.1300001</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="38">
         <v>2734329189.8099999</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K15" s="19">
+        <v>1727047521.1199999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="37">
+        <f>I13/I15</f>
+        <v>0.18038858198874277</v>
+      </c>
+      <c r="E16" s="37">
+        <f>J13/J15</f>
+        <v>0.11702049696592455</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="37">
+        <f>I7</f>
+        <v>865</v>
+      </c>
+      <c r="E17" s="37">
+        <f>J12/J7</f>
+        <v>2455055.6180500658</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="28">
+        <v>2021</v>
+      </c>
+      <c r="J18" s="26">
+        <v>2020</v>
+      </c>
+      <c r="K18" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="1"/>
+      <c r="H19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="39">
+        <v>50642035.729999997</v>
+      </c>
+      <c r="J19" s="38">
+        <v>37764009.530000001</v>
+      </c>
+      <c r="K19" s="19">
+        <v>39268957.659999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="39">
+        <v>90465741.25</v>
+      </c>
+      <c r="J20" s="38">
+        <v>79371051.310000002</v>
+      </c>
+      <c r="K20" s="19">
+        <v>77573399.709999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="39">
+        <v>560859120.85000002</v>
+      </c>
+      <c r="J21" s="38">
+        <v>376327453.49000001</v>
+      </c>
+      <c r="K21" s="19">
+        <v>310080076.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="35">
-        <v>2021</v>
-      </c>
-      <c r="J18" s="33">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="36">
-        <v>50642035.729999997</v>
-      </c>
-      <c r="J19" s="34">
-        <v>37764009.530000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="36">
-        <v>90465741.25</v>
-      </c>
-      <c r="J20" s="34">
-        <v>79371051.310000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H21" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="36">
-        <v>560859120.85000002</v>
-      </c>
-      <c r="J21" s="34">
-        <v>376327453.49000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H22" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="36">
+      <c r="I22" s="39">
         <v>-27207696.559999999</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="38">
         <v>8843862.6899999995</v>
+      </c>
+      <c r="K22" s="19">
+        <v>-34230308.240000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H23" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="40">
+        <f>SUM(I19,I20,I21,I22)</f>
+        <v>674759201.2700001</v>
+      </c>
+      <c r="J23" s="40">
+        <f>SUM(J19,J20,J21,J22)</f>
+        <v>502306377.02000004</v>
+      </c>
+      <c r="K23" s="19">
+        <f>SUM(K19,K20,K21,K22)</f>
+        <v>392692125.56999999</v>
       </c>
     </row>
   </sheetData>
@@ -6043,221 +6989,554 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94934C14-95E4-495E-AC40-CB871012F3E4}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.75" customWidth="1"/>
+    <col min="2" max="5" width="27.1640625" customWidth="1"/>
+    <col min="6" max="6" width="32.75" customWidth="1"/>
+    <col min="10" max="13" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="16">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="16">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D2" s="39">
+        <v>18804012</v>
+      </c>
+      <c r="E2" s="38">
+        <v>14797025</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D3" s="4">
+        <f>K21/K23</f>
+        <v>0.55396045383602488</v>
+      </c>
+      <c r="E3" s="4">
+        <f>L21/L23</f>
+        <v>0.53243189123827717</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="J3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="39">
+        <v>33422</v>
+      </c>
+      <c r="L3" s="38">
+        <v>31747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D4" s="39">
+        <v>33422</v>
+      </c>
+      <c r="E4" s="38">
+        <v>31747</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="J4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="39">
+        <v>1319</v>
+      </c>
+      <c r="L4" s="38">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D5" s="4">
+        <f>K3/K9</f>
+        <v>0.46045960542268266</v>
+      </c>
+      <c r="E5" s="4">
+        <f>L3/L9</f>
+        <v>0.43070724063547194</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="J5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="39">
+        <v>4352</v>
+      </c>
+      <c r="L5" s="38">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="49"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="J6" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="38">
+        <v>16582</v>
+      </c>
+      <c r="L6" s="38">
+        <v>18143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="J7" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="38">
+        <v>8283</v>
+      </c>
+      <c r="L7" s="38">
+        <v>9030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D8" s="37">
+        <v>114521641</v>
+      </c>
+      <c r="E8" s="37">
+        <v>101450670</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="J8" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="38">
+        <v>8626</v>
+      </c>
+      <c r="L8" s="38">
+        <v>8953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D9" s="38">
+        <v>53287660</v>
+      </c>
+      <c r="E9" s="38">
+        <v>46122506</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="J9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="39">
+        <f>SUM(K3,K4,K5,K6,K7,K8)</f>
+        <v>72584</v>
+      </c>
+      <c r="L9" s="38">
+        <f>SUM(L3,L4,L5,L6,L7,L8)</f>
+        <v>73709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D10" s="37">
+        <v>7035890</v>
+      </c>
+      <c r="E10" s="37">
+        <v>4721692</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="D11" s="39">
+        <f>SUM(D5,D6,D7,D8,D9,D10)</f>
+        <v>174845191.46045959</v>
+      </c>
+      <c r="E11" s="38">
+        <f>SUM(E5,E6,E7,E8,E9,E10)</f>
+        <v>152294868.43070725</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="J12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="37">
+        <v>114521641</v>
+      </c>
+      <c r="L12" s="37">
+        <v>101450670</v>
+      </c>
+      <c r="M12" s="40">
+        <v>90736582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4">
+        <f>K12/L12-1</f>
+        <v>0.12884065723765059</v>
+      </c>
+      <c r="E13" s="4">
+        <f>(L12/M12)-1</f>
+        <v>0.11807903453978463</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="37">
+        <v>7035890</v>
+      </c>
+      <c r="L13" s="37">
+        <v>4721692</v>
+      </c>
+      <c r="M13" s="40">
+        <v>5776669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4">
+        <f>(K13/L13)-1</f>
+        <v>0.49012049070545061</v>
+      </c>
+      <c r="E14" s="4">
+        <f>(L13/M13)-1</f>
+        <v>-0.18262721994284248</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="38">
+        <v>53287660</v>
+      </c>
+      <c r="L14" s="38">
+        <v>46122506</v>
+      </c>
+      <c r="M14" s="40">
+        <v>37954298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="B15" s="38"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4">
+        <f>K13/K14</f>
+        <v>0.13203600983792496</v>
+      </c>
+      <c r="E15" s="4">
+        <f>L13/L14</f>
+        <v>0.10237284157977018</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="38">
+        <v>168763425</v>
+      </c>
+      <c r="L15" s="38">
+        <v>150634906</v>
+      </c>
+      <c r="M15" s="40">
+        <v>141202135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="49"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="J17" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4">
+        <f>K13/K15</f>
+        <v>4.1690846224529989E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <f>L13/L15</f>
+        <v>3.1345271327749225E-2</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="J18" s="24"/>
+      <c r="K18" s="28">
+        <v>2021</v>
+      </c>
+      <c r="L18" s="26">
+        <v>2020</v>
+      </c>
+      <c r="M18" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4">
+        <f>K12/K9</f>
+        <v>1577.7807919100628</v>
+      </c>
+      <c r="E19" s="4">
+        <f>L12/L9</f>
+        <v>1376.3674720861768</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="J19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="39">
+        <v>8733152</v>
+      </c>
+      <c r="L19" s="38">
+        <v>7578837</v>
+      </c>
+      <c r="M19" s="38">
+        <v>7868722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J20" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="39">
+        <v>5444613</v>
+      </c>
+      <c r="L20" s="38">
+        <v>4994996</v>
+      </c>
+      <c r="M20" s="38">
+        <v>4772823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="39">
+        <v>18804012</v>
+      </c>
+      <c r="L21" s="38">
+        <v>14797025</v>
+      </c>
+      <c r="M21" s="38">
+        <v>12547898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J22" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="39">
+        <v>962906</v>
+      </c>
+      <c r="L22" s="38">
+        <v>420537</v>
+      </c>
+      <c r="M22" s="38">
+        <v>965955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J23" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="38">
+        <f>SUM(K19,K20,K21,K22)</f>
+        <v>33944683</v>
+      </c>
+      <c r="L23" s="38">
+        <f>SUM(L19,L20,L21,L22)</f>
+        <v>27791395</v>
+      </c>
+      <c r="M23" s="38">
+        <f>SUM(M19,M20,M21,M22)</f>
+        <v>26155398</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="J17:L17"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B8:B11"/>

--- a/我的/企业年报及表格/评价指标.xlsx
+++ b/我的/企业年报及表格/评价指标.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593C1613-9C53-4B0C-A190-AD26E2B0635F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550E560B-1CB1-428D-B495-C062F73A76DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="576" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="576" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,16 @@
     <sheet name="恒宇信通(已完成)" sheetId="6" r:id="rId5"/>
     <sheet name="科大讯飞(已完成)" sheetId="7" r:id="rId6"/>
     <sheet name="视源股份(已完成)" sheetId="8" r:id="rId7"/>
-    <sheet name="微芯瑞(已完成)" sheetId="9" r:id="rId8"/>
-    <sheet name="中兴通讯(已完成)" sheetId="10" r:id="rId9"/>
-    <sheet name="达安基因" sheetId="11" state="hidden" r:id="rId10"/>
-    <sheet name="高奈特(已完成部分)" sheetId="13" state="hidden" r:id="rId11"/>
-    <sheet name="东方电子(已完成)" sheetId="12" r:id="rId12"/>
-    <sheet name="中软国际（中软国际)" sheetId="15" state="hidden" r:id="rId13"/>
-    <sheet name="航新科技(已完成)" sheetId="14" r:id="rId14"/>
-    <sheet name="百家云" sheetId="3" state="hidden" r:id="rId15"/>
+    <sheet name="中兴通讯(已完成)" sheetId="10" r:id="rId8"/>
+    <sheet name="达安基因" sheetId="11" state="hidden" r:id="rId9"/>
+    <sheet name="高奈特(已完成部分)" sheetId="13" state="hidden" r:id="rId10"/>
+    <sheet name="东方电子(已完成)" sheetId="12" r:id="rId11"/>
+    <sheet name="中软国际（中软国际)" sheetId="15" state="hidden" r:id="rId12"/>
+    <sheet name="航新科技(已完成)" sheetId="14" r:id="rId13"/>
+    <sheet name="TCL(已完成）" sheetId="16" r:id="rId14"/>
+    <sheet name="新国都(已完成）" sheetId="18" r:id="rId15"/>
+    <sheet name="论文中的表" sheetId="20" r:id="rId16"/>
+    <sheet name="百家云" sheetId="3" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="96">
   <si>
     <t>技术创新力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +347,78 @@
   </si>
   <si>
     <t>技术（研发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术创新力（A）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业规模竞争力（B）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可持续发展竞争力（C）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产管理竞争力（D）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业年报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发费用占总费用的比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术人员占所有员工的比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有者权益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -352,12 +426,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="183" formatCode="#,##0.00000_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +484,14 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -500,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -630,6 +713,27 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,34 +752,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -975,10 +1061,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="16" t="s">
         <v>58</v>
       </c>
@@ -993,7 +1079,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1007,7 +1093,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +1105,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1115,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1051,7 +1137,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1065,7 +1151,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1163,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1089,7 +1175,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1197,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1127,7 +1213,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1139,7 +1225,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1163,7 +1249,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1179,7 +1265,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1204,348 +1290,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1238C2B-7074-4DC5-A886-CF3EF6AA84D4}">
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.9140625" customWidth="1"/>
-    <col min="3" max="3" width="20.4140625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.08203125" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="8" max="10" width="15.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="7"/>
-      <c r="H2" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7"/>
-      <c r="H3" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
-      <c r="H4" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-      <c r="H5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="H6" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="7"/>
-      <c r="H10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="H11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="28">
-        <v>2021</v>
-      </c>
-      <c r="J16" s="26">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H18" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="27"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H20" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B4A5FC-A61A-434A-A1B3-C944E1F22225}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -1564,10 +1308,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="16" t="s">
         <v>58</v>
       </c>
@@ -1588,7 +1332,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1612,7 +1356,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1636,7 +1380,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1654,7 +1398,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1691,7 +1435,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1715,7 +1459,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1475,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1498,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +1540,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1824,7 +1568,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1848,7 +1592,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1873,17 +1617,17 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1912,7 +1656,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1994,12 +1738,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD413E7-CB7A-4693-AC1B-2BB91CF79F63}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2017,10 +1761,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="16" t="s">
         <v>58</v>
       </c>
@@ -2044,7 +1788,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2071,7 +1815,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2098,7 +1842,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -2121,7 +1865,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -2167,7 +1911,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2194,7 +1938,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2219,7 +1963,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2235,7 +1979,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2266,7 +2010,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="37">
@@ -2275,7 +2019,7 @@
       <c r="J11" s="37">
         <v>3757268060.5799999</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="27">
         <v>3418615326</v>
       </c>
     </row>
@@ -2283,7 +2027,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2300,7 +2044,7 @@
       <c r="F12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="37">
@@ -2309,7 +2053,7 @@
       <c r="J12" s="37">
         <v>325057605.19</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="27">
         <v>54511171.57</v>
       </c>
     </row>
@@ -2317,7 +2061,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2332,22 +2076,22 @@
       <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="38">
         <v>3528441332.4899998</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="38">
         <v>3396734183.1999998</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="27">
         <v>3556958582.1199999</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -2365,13 +2109,13 @@
       <c r="H14" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="38">
         <v>5278247571.5900002</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="38">
         <v>4833783199.8299999</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="27">
         <v>4693221319.6300001</v>
       </c>
     </row>
@@ -2389,7 +2133,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2406,18 +2150,18 @@
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -2530,7 +2274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DECE2C1-7E51-4A94-86C3-7ED33B8F4A52}">
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -2549,10 +2293,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="16" t="s">
         <v>58</v>
       </c>
@@ -2573,7 +2317,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2591,7 +2335,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2607,7 +2351,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2365,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -2651,7 +2395,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2665,7 +2409,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2677,7 +2421,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2696,7 +2440,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2728,7 +2472,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2749,7 +2493,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2766,7 +2510,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -2785,17 +2529,17 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2818,7 +2562,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -2853,6 +2597,532 @@
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350B0463-92C0-436C-AF54-B9093BEF371E}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="10" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="39">
+        <v>56488349.770000003</v>
+      </c>
+      <c r="E2" s="38">
+        <v>45573773.340000004</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="H2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="20">
+        <v>67</v>
+      </c>
+      <c r="J2" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="37">
+        <f>I19/I21</f>
+        <v>0.18148734950160594</v>
+      </c>
+      <c r="E3" s="37">
+        <f>J19/J21</f>
+        <v>0.14710821784308015</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="H3" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="20">
+        <v>506</v>
+      </c>
+      <c r="J3" s="9">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="39">
+        <v>506</v>
+      </c>
+      <c r="E4" s="9">
+        <v>388</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="H4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="24">
+        <v>40</v>
+      </c>
+      <c r="J4" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="37">
+        <f>I3/I7</f>
+        <v>0.39811172305271442</v>
+      </c>
+      <c r="E5" s="37">
+        <f>J3/J7</f>
+        <v>0.33021276595744681</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="H5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="24">
+        <v>157</v>
+      </c>
+      <c r="J5" s="9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="9">
+        <v>501</v>
+      </c>
+      <c r="J6" s="9">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="37">
+        <v>1160148829.1500001</v>
+      </c>
+      <c r="E7" s="37">
+        <v>1223635327.1800001</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1271</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="38">
+        <v>751662265.59000003</v>
+      </c>
+      <c r="E8" s="38">
+        <v>736116975.38999999</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="H8" s="49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="37">
+        <v>22048801.41</v>
+      </c>
+      <c r="E9" s="37">
+        <v>383610629.31999999</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1271</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1175</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1160148829.1500001</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1223635327.1800001</v>
+      </c>
+      <c r="K10" s="27">
+        <v>1434985114.4400001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="17">
+        <v>22048801.41</v>
+      </c>
+      <c r="J11" s="17">
+        <v>383610629.31999999</v>
+      </c>
+      <c r="K11" s="27">
+        <v>66190989.840000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="37">
+        <f>(I10/J10)-1</f>
+        <v>-5.1883511876296917E-2</v>
+      </c>
+      <c r="E12" s="37">
+        <f>(J10/K10)-1</f>
+        <v>-0.14728360951847141</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="27">
+        <v>751662265.59000003</v>
+      </c>
+      <c r="J12" s="27">
+        <v>736116975.38999999</v>
+      </c>
+      <c r="K12" s="27">
+        <v>717232684.53999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="37">
+        <f>(I11/J11)-1</f>
+        <v>-0.9425229654113485</v>
+      </c>
+      <c r="E13" s="37">
+        <f>(J11/K11)-1</f>
+        <v>4.795511296133836</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="27">
+        <v>2056238269.8399999</v>
+      </c>
+      <c r="J13" s="27">
+        <v>2067760949.45</v>
+      </c>
+      <c r="K13" s="27">
+        <v>1797539146.6700001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="37">
+        <f>I11/I12</f>
+        <v>2.9333388703094335E-2</v>
+      </c>
+      <c r="E14" s="37">
+        <f>I11/I12</f>
+        <v>2.9333388703094335E-2</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="37">
+        <f>I11/I13</f>
+        <v>1.0722882524560572E-2</v>
+      </c>
+      <c r="E16" s="37">
+        <f>J11/J13</f>
+        <v>0.18551981524848696</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="28">
+        <v>2021</v>
+      </c>
+      <c r="J16" s="26">
+        <v>2020</v>
+      </c>
+      <c r="K16" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="37">
+        <f>I10/I7</f>
+        <v>912784.28729346977</v>
+      </c>
+      <c r="E17" s="37">
+        <f>(J10/J7)</f>
+        <v>1041391.767812766</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="29">
+        <v>29738222.66</v>
+      </c>
+      <c r="J17" s="27">
+        <v>27757876.239999998</v>
+      </c>
+      <c r="K17" s="27">
+        <v>29945248.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H18" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="29">
+        <v>189632009.09</v>
+      </c>
+      <c r="J18" s="27">
+        <v>192745830.81999999</v>
+      </c>
+      <c r="K18" s="27">
+        <v>195683582.13999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="29">
+        <v>56488349.770000003</v>
+      </c>
+      <c r="J19" s="27">
+        <v>45573773.340000004</v>
+      </c>
+      <c r="K19" s="27">
+        <v>37574791.399999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="29">
+        <v>35393689.920000002</v>
+      </c>
+      <c r="J20" s="27">
+        <v>43720123.079999998</v>
+      </c>
+      <c r="K20" s="27">
+        <v>30703782.940000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="27">
+        <f>SUM(I17,I18,I19,I20)</f>
+        <v>311252271.44</v>
+      </c>
+      <c r="J21" s="27">
+        <f>SUM(J17,J18,J19,J20)</f>
+        <v>309797603.48000002</v>
+      </c>
+      <c r="K21" s="27">
+        <f>SUM(K17,K18,K19,K20)</f>
+        <v>293907404.75</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2869,525 +3139,495 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350B0463-92C0-436C-AF54-B9093BEF371E}">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7468757A-8D3C-42B2-AED0-3E1B94A9E249}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B5" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="5" width="20.1640625" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="10" width="20.1640625" customWidth="1"/>
-    <col min="11" max="11" width="18.9140625" customWidth="1"/>
+    <col min="1" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.25" customWidth="1"/>
+    <col min="6" max="10" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="D1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G1" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="H1" s="23" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39">
-        <v>56488349.770000003</v>
-      </c>
-      <c r="E2" s="38">
-        <v>45573773.340000004</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="H2" s="28" t="s">
+      <c r="C2" s="29">
+        <v>171151</v>
+      </c>
+      <c r="D2" s="27">
+        <v>178751</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="G2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="20">
-        <v>67</v>
-      </c>
-      <c r="J2" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="32" t="s">
+      <c r="H2" s="20">
+        <v>1917</v>
+      </c>
+      <c r="I2" s="22">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="58"/>
+      <c r="B3" s="32" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="37">
+        <f>H21/H23</f>
+        <v>6.6288086378894523E-2</v>
+      </c>
       <c r="D3" s="37">
-        <f>I19/I21</f>
-        <v>0.18148734950160594</v>
-      </c>
-      <c r="E3" s="37">
-        <f>J19/J21</f>
-        <v>0.14710821784308015</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="H3" s="28" t="s">
+        <f>I21/I23</f>
+        <v>9.4522535632813598E-2</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="G3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="20">
-        <v>506</v>
-      </c>
-      <c r="J3" s="9">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="32" t="s">
+      <c r="H3" s="20">
+        <v>10517</v>
+      </c>
+      <c r="I3" s="22">
+        <v>8156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="58"/>
+      <c r="B4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="39">
-        <v>506</v>
-      </c>
-      <c r="E4" s="9">
-        <v>388</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="H4" s="28" t="s">
+      <c r="C4" s="20">
+        <v>10517</v>
+      </c>
+      <c r="D4" s="22">
+        <v>8156</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="G4" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="24">
-        <v>40</v>
-      </c>
-      <c r="J4" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="32" t="s">
+      <c r="H4" s="24">
+        <v>799</v>
+      </c>
+      <c r="I4" s="9">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="58"/>
+      <c r="B5" s="32" t="s">
         <v>22</v>
       </c>
+      <c r="C5" s="37">
+        <f>H3/H9</f>
+        <v>0.1614051781027947</v>
+      </c>
       <c r="D5" s="37">
-        <f>I3/I7</f>
-        <v>0.39811172305271442</v>
-      </c>
-      <c r="E5" s="37">
-        <f>J3/J7</f>
-        <v>0.33021276595744681</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="H5" s="28" t="s">
+        <f>I3/I9</f>
+        <v>0.16826556085081801</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="G5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="24">
-        <v>157</v>
-      </c>
-      <c r="J5" s="9">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="33"/>
+      <c r="H5" s="24">
+        <v>507</v>
+      </c>
+      <c r="I5" s="9">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="9">
-        <v>501</v>
-      </c>
-      <c r="J6" s="9">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="H6" s="9">
+        <v>43028</v>
+      </c>
+      <c r="I6" s="22">
+        <v>33772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1490937</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1141258</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1370</v>
+      </c>
+      <c r="I7" s="22">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="58"/>
+      <c r="B8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="37">
-        <v>1160148829.1500001</v>
-      </c>
-      <c r="E7" s="37">
-        <v>1223635327.1800001</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="H7" s="28" t="s">
+      <c r="C8" s="27">
+        <v>32503342</v>
+      </c>
+      <c r="D8" s="27">
+        <v>33359055</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="9">
+        <v>7021</v>
+      </c>
+      <c r="I8" s="22">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="58"/>
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17">
+        <v>978340</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2145240</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="G9" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="20">
-        <v>1271</v>
-      </c>
-      <c r="J7" s="22">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="38">
-        <v>751662265.59000003</v>
-      </c>
-      <c r="E8" s="38">
-        <v>736116975.38999999</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="H8" s="60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="H9" s="20">
+        <v>65159</v>
+      </c>
+      <c r="I9" s="22">
+        <v>48471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="58"/>
+      <c r="B10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="37">
-        <v>22048801.41</v>
-      </c>
-      <c r="E9" s="37">
-        <v>383610629.31999999</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="26">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="39">
-        <v>1271</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1175</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="H10" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="17">
-        <v>1160148829.1500001</v>
-      </c>
-      <c r="J10" s="17">
-        <v>1223635327.1800001</v>
-      </c>
-      <c r="K10" s="59">
-        <v>1434985114.4400001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="33"/>
+      <c r="C10" s="20">
+        <v>65159</v>
+      </c>
+      <c r="D10" s="22">
+        <v>48471</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="37">
+        <f>H12/I12-1</f>
+        <v>0.30639785219468352</v>
+      </c>
+      <c r="D12" s="37">
+        <f>(I12/J12)-1</f>
+        <v>-0.34038459426640011</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1490937</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1141258</v>
+      </c>
+      <c r="J12" s="27">
+        <v>1730187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="58"/>
+      <c r="B13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="37">
+        <f>(H13/I13)-1</f>
+        <v>-0.54394846264287444</v>
+      </c>
+      <c r="D13" s="37">
+        <f>I13/J13-1</f>
+        <v>3.0605090116180032</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="17">
-        <v>22048801.41</v>
-      </c>
-      <c r="J11" s="17">
-        <v>383610629.31999999</v>
-      </c>
-      <c r="K11" s="59">
-        <v>66190989.840000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="37">
-        <f>(I10/J10)-1</f>
-        <v>-5.1883511876296917E-2</v>
-      </c>
-      <c r="E12" s="37">
-        <f>(J10/K10)-1</f>
-        <v>-0.14728360951847141</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="30" t="s">
+      <c r="H13" s="17">
+        <v>978340</v>
+      </c>
+      <c r="I13" s="17">
+        <v>2145240</v>
+      </c>
+      <c r="J13" s="27">
+        <v>528318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="58"/>
+      <c r="B14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="37">
+        <f>H13/H14</f>
+        <v>3.0099674058132238E-2</v>
+      </c>
+      <c r="D14" s="37">
+        <f>I13/I14</f>
+        <v>6.4307577058163062E-2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="59">
-        <v>751662265.59000003</v>
-      </c>
-      <c r="J12" s="59">
-        <v>736116975.38999999</v>
-      </c>
-      <c r="K12" s="59">
-        <v>717232684.53999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="37">
-        <f>(I11/J11)-1</f>
-        <v>-0.9425229654113485</v>
-      </c>
-      <c r="E13" s="37">
-        <f>(J11/K11)-1</f>
-        <v>4.795511296133836</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="59">
-        <v>2056238269.8399999</v>
-      </c>
-      <c r="J13" s="59">
-        <v>2067760949.45</v>
-      </c>
-      <c r="K13" s="59">
-        <v>1797539146.6700001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="37">
-        <f>I11/I12</f>
-        <v>2.9333388703094335E-2</v>
-      </c>
-      <c r="E14" s="37">
-        <f>I11/I12</f>
-        <v>2.9333388703094335E-2</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="33"/>
+      <c r="H14" s="27">
+        <v>32503342</v>
+      </c>
+      <c r="I14" s="27">
+        <v>33359055</v>
+      </c>
+      <c r="J14" s="27">
+        <v>30170459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="51" t="s">
+      <c r="G15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="27">
+        <v>101912002</v>
+      </c>
+      <c r="I15" s="27">
+        <v>96186815</v>
+      </c>
+      <c r="J15" s="27">
+        <v>66126950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="37">
+        <f>H13/H15</f>
+        <v>9.5998506633203032E-3</v>
+      </c>
+      <c r="D16" s="37">
+        <f>I13/I15</f>
+        <v>2.2302848888384547E-2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="58"/>
+      <c r="B17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="37">
+        <f>H12/H9</f>
+        <v>22.881520588099878</v>
+      </c>
+      <c r="D17" s="37">
+        <f>I12/I9</f>
+        <v>23.545171339563861</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="37">
-        <f>I11/I13</f>
-        <v>1.0722882524560572E-2</v>
-      </c>
-      <c r="E16" s="37">
-        <f>J11/J13</f>
-        <v>0.18551981524848696</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="28">
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G18" s="24"/>
+      <c r="H18" s="28">
         <v>2021</v>
       </c>
-      <c r="J16" s="26">
+      <c r="I18" s="26">
         <v>2020</v>
       </c>
-      <c r="K16" s="26">
+      <c r="J18" s="26">
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="37">
-        <f>I10/I7</f>
-        <v>912784.28729346977</v>
-      </c>
-      <c r="E17" s="37">
-        <f>(J10/J7)</f>
-        <v>1041391.767812766</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="28" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G19" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="29">
-        <v>29738222.66</v>
-      </c>
-      <c r="J17" s="27">
-        <v>27757876.239999998</v>
-      </c>
-      <c r="K17" s="27">
-        <v>29945248.27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H18" s="28" t="s">
+      <c r="H19" s="29">
+        <v>35458</v>
+      </c>
+      <c r="I19" s="27">
+        <v>30066</v>
+      </c>
+      <c r="J19" s="27">
+        <v>29931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G20" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="29">
-        <v>189632009.09</v>
-      </c>
-      <c r="J18" s="27">
-        <v>192745830.81999999</v>
-      </c>
-      <c r="K18" s="27">
-        <v>195683582.13999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H19" s="28" t="s">
+      <c r="H20" s="29">
+        <v>550668</v>
+      </c>
+      <c r="I20" s="27">
+        <v>427591</v>
+      </c>
+      <c r="J20" s="27">
+        <v>354036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G21" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="29">
-        <v>56488349.770000003</v>
-      </c>
-      <c r="J19" s="27">
-        <v>45573773.340000004</v>
-      </c>
-      <c r="K19" s="27">
-        <v>37574791.399999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H20" s="28" t="s">
+      <c r="H21" s="29">
+        <v>171151</v>
+      </c>
+      <c r="I21" s="27">
+        <v>178751</v>
+      </c>
+      <c r="J21" s="27">
+        <v>160796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G22" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="29">
-        <v>35393689.920000002</v>
-      </c>
-      <c r="J20" s="27">
-        <v>43720123.079999998</v>
-      </c>
-      <c r="K20" s="27">
-        <v>30703782.940000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H21" s="28" t="s">
+      <c r="H22" s="29">
+        <v>1824650</v>
+      </c>
+      <c r="I22" s="27">
+        <v>1254686</v>
+      </c>
+      <c r="J22" s="27">
+        <v>917158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G23" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="27">
-        <f>SUM(I17,I18,I19,I20)</f>
-        <v>311252271.44</v>
-      </c>
-      <c r="J21" s="27">
-        <f>SUM(J17,J18,J19,J20)</f>
-        <v>309797603.48000002</v>
-      </c>
-      <c r="K21" s="27">
-        <f>SUM(K17,K18,K19,K20)</f>
-        <v>293907404.75</v>
+      <c r="H23" s="27">
+        <f>SUM(H19,H20,H21,H22)</f>
+        <v>2581927</v>
+      </c>
+      <c r="I23" s="27">
+        <f>SUM(I19,I20,I21,I22)</f>
+        <v>1891094</v>
+      </c>
+      <c r="J23" s="27">
+        <f>SUM(J19,J20,J21,J22)</f>
+        <v>1461921</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3395,6 +3635,752 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E2F5AE-0AF5-4132-A9B6-304F6668BBBA}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="19.58203125" customWidth="1"/>
+    <col min="3" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="10" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="27">
+        <v>19171305.75</v>
+      </c>
+      <c r="D2" s="27">
+        <v>16005610.880000001</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="G2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="9">
+        <v>893</v>
+      </c>
+      <c r="I2" s="9">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="58"/>
+      <c r="B3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="37">
+        <f>H21/H23</f>
+        <v>0.19257807546264544</v>
+      </c>
+      <c r="D3" s="37">
+        <f>I21/I23</f>
+        <v>0.17988594424514501</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="G3" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="9">
+        <v>651</v>
+      </c>
+      <c r="I3" s="9">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="58"/>
+      <c r="B4" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9">
+        <v>651</v>
+      </c>
+      <c r="D4" s="9">
+        <v>507</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="G4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="9">
+        <v>44</v>
+      </c>
+      <c r="I4" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="58"/>
+      <c r="B5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="37">
+        <f>H3/H8</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D5" s="37">
+        <f>I3/I8</f>
+        <v>0.20881383855024713</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="G5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="9">
+        <v>44</v>
+      </c>
+      <c r="I5" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="G6" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="9">
+        <v>819</v>
+      </c>
+      <c r="I6" s="9">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="27">
+        <v>68912822.780000001</v>
+      </c>
+      <c r="D7" s="27">
+        <v>61146371.119999997</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="9">
+        <v>370</v>
+      </c>
+      <c r="I7" s="9">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="58"/>
+      <c r="B8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2145285804.96</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1957644079.22</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="20">
+        <f>SUM(H2:H7)</f>
+        <v>2821</v>
+      </c>
+      <c r="I8" s="22">
+        <f>SUM(I2:I7)</f>
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="58"/>
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19">
+        <v>202764483.75999999</v>
+      </c>
+      <c r="D9" s="19">
+        <v>85109652.599999994</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="58"/>
+      <c r="B10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="20">
+        <f>SUM(C4:C9)</f>
+        <v>2416963762.7307692</v>
+      </c>
+      <c r="D10" s="22">
+        <f>SUM(D4:D9)</f>
+        <v>2103900610.1488137</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="37">
+        <f>(H12/I12)-1</f>
+        <v>-0.10595177650143084</v>
+      </c>
+      <c r="D12" s="64">
+        <f>(I12/J12)-1</f>
+        <v>-0.52821259257371334</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="27">
+        <v>11431814.27</v>
+      </c>
+      <c r="I12" s="27">
+        <v>12786574.560000001</v>
+      </c>
+      <c r="J12" s="27">
+        <v>27102407.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="58"/>
+      <c r="B13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="37">
+        <f>(H13/I13)-1</f>
+        <v>1.382391157357397</v>
+      </c>
+      <c r="D13" s="37">
+        <f>(I13/J13)-1</f>
+        <v>-0.95652445022901667</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="27">
+        <v>202764483.75999999</v>
+      </c>
+      <c r="I13" s="27">
+        <v>85109652.599999994</v>
+      </c>
+      <c r="J13" s="27">
+        <v>1957644079.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="58"/>
+      <c r="B14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="37">
+        <f>H13/H14</f>
+        <v>9.4516303278192174E-2</v>
+      </c>
+      <c r="D14" s="37">
+        <f>I13/I14</f>
+        <v>4.3475549770983356E-2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="27">
+        <v>2145285804.96</v>
+      </c>
+      <c r="I14" s="27">
+        <v>1957644079.22</v>
+      </c>
+      <c r="J14" s="27">
+        <v>1957644079.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="27">
+        <v>2480859173.46</v>
+      </c>
+      <c r="I15" s="27">
+        <v>2570973001.3099999</v>
+      </c>
+      <c r="J15" s="27">
+        <v>2855898872.6700001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="37">
+        <f>H14/H15</f>
+        <v>0.86473501918612206</v>
+      </c>
+      <c r="D16" s="37">
+        <f>I14/I15</f>
+        <v>0.76144093237171784</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="58"/>
+      <c r="B17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="37">
+        <f>H12/H8</f>
+        <v>4052.3978270116977</v>
+      </c>
+      <c r="D17" s="37">
+        <f>I15/I8</f>
+        <v>1058885.0911490938</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G18" s="24"/>
+      <c r="H18" s="28">
+        <v>2021</v>
+      </c>
+      <c r="I18" s="26">
+        <v>2020</v>
+      </c>
+      <c r="J18" s="26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G19" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="27">
+        <v>239757.79</v>
+      </c>
+      <c r="I19" s="27">
+        <v>597521.87</v>
+      </c>
+      <c r="J19" s="27">
+        <v>1660787.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="27">
+        <v>68912822.780000001</v>
+      </c>
+      <c r="I20" s="27">
+        <v>61146371.119999997</v>
+      </c>
+      <c r="J20" s="27">
+        <v>59089596.130000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G21" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="27">
+        <v>19171305.75</v>
+      </c>
+      <c r="I21" s="27">
+        <v>16005610.880000001</v>
+      </c>
+      <c r="J21" s="27">
+        <v>19271269.859999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G22" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="27">
+        <v>11226935.880000001</v>
+      </c>
+      <c r="I22" s="27">
+        <v>11226935.880000001</v>
+      </c>
+      <c r="J22" s="27">
+        <v>16107067.220000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G23" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="27">
+        <f>SUM(H19,H20,H21,H22)</f>
+        <v>99550822.200000003</v>
+      </c>
+      <c r="I23" s="27">
+        <f>SUM(I19,I20,I21,I22)</f>
+        <v>88976439.749999985</v>
+      </c>
+      <c r="J23" s="27">
+        <f>SUM(J19,J20,J21,J22)</f>
+        <v>96128720.800000012</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G17:I17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5446BA3A-8DE5-4508-AAB5-981B42580AFC}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.9140625" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="C21" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B1A072-ED7E-4F7D-8EA7-D46E08E8D808}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3429,10 +4415,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
@@ -3450,7 +4436,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3475,7 +4461,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3490,7 +4476,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -3505,7 +4491,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -3531,7 +4517,7 @@
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="58" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3550,7 +4536,7 @@
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3567,7 +4553,7 @@
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -3584,7 +4570,7 @@
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -3610,7 +4596,7 @@
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3627,7 +4613,7 @@
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
@@ -3648,7 +4634,7 @@
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -3669,7 +4655,7 @@
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
@@ -3697,7 +4683,7 @@
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3716,7 +4702,7 @@
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
@@ -3763,10 +4749,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="16" t="s">
         <v>70</v>
       </c>
@@ -3790,7 +4776,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3817,7 +4803,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3844,7 +4830,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -3867,7 +4853,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -3911,7 +4897,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3938,7 +4924,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3954,7 +4940,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -3980,7 +4966,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -4022,7 +5008,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -4056,7 +5042,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -4086,7 +5072,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -4128,7 +5114,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4150,7 +5136,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -4167,11 +5153,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4302,10 +5288,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="3" t="s">
         <v>58</v>
       </c>
@@ -4329,7 +5315,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -4356,7 +5342,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4380,7 +5366,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -4403,7 +5389,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -4449,7 +5435,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4476,7 +5462,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -4501,7 +5487,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -4518,7 +5504,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -4544,7 +5530,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -4576,7 +5562,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -4598,7 +5584,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -4652,7 +5638,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4686,7 +5672,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -4715,11 +5701,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -4835,10 +5821,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="16" t="s">
         <v>58</v>
       </c>
@@ -4862,7 +5848,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -4889,11 +5875,11 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="56">
         <f>I23/I25</f>
         <v>0.50699498225991502</v>
       </c>
@@ -4916,7 +5902,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -4939,7 +5925,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -4985,7 +5971,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5012,7 +5998,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -5029,7 +6015,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -5045,7 +6031,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5071,7 +6057,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -5103,7 +6089,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -5133,7 +6119,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -5187,7 +6173,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5221,7 +6207,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -5238,11 +6224,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5375,10 +6361,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="16" t="s">
         <v>58</v>
       </c>
@@ -5402,7 +6388,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5429,7 +6415,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -5451,13 +6437,13 @@
       <c r="J3" s="22">
         <v>2915</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -5477,11 +6463,11 @@
       <c r="J4" s="22">
         <v>6461</v>
       </c>
-      <c r="K4" s="65"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -5527,7 +6513,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5554,7 +6540,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -5579,7 +6565,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -5604,7 +6590,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5630,7 +6616,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -5662,7 +6648,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -5692,7 +6678,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -5746,7 +6732,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5780,7 +6766,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -5797,11 +6783,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5925,10 +6911,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="16" t="s">
         <v>58</v>
       </c>
@@ -5950,7 +6936,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5975,7 +6961,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -6002,14 +6988,14 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="39">
         <v>3081</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="7"/>
       <c r="H4" s="24" t="s">
         <v>61</v>
@@ -6023,7 +7009,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -6064,7 +7050,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -6089,7 +7075,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -6114,7 +7100,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
@@ -6139,7 +7125,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
@@ -6165,7 +7151,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -6175,7 +7161,7 @@
         <f>(I13/J13)-1</f>
         <v>0.23914536966343913</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="54">
         <f>(J13/K13)-1</f>
         <v>4.4927575578583845E-3</v>
       </c>
@@ -6197,7 +7183,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -6227,7 +7213,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
@@ -6281,7 +7267,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -6315,7 +7301,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -6336,11 +7322,11 @@
     </row>
     <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -6359,10 +7345,10 @@
       <c r="H21" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="51">
         <v>1370338186.6800001</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="52">
         <v>1008334776.91</v>
       </c>
       <c r="K21" s="27">
@@ -6373,10 +7359,10 @@
       <c r="H22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22" s="51">
         <v>977734736.30999994</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="52">
         <v>688551563.30999994</v>
       </c>
       <c r="K22" s="27">
@@ -6387,10 +7373,10 @@
       <c r="H23" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="51">
         <v>1163313854.72</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="52">
         <v>881423876.78999996</v>
       </c>
       <c r="K23" s="27">
@@ -6401,10 +7387,10 @@
       <c r="H24" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="61">
+      <c r="I24" s="51">
         <v>-51235614.710000001</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="52">
         <v>-146245217.56999999</v>
       </c>
       <c r="K24" s="27">
@@ -6415,11 +7401,11 @@
       <c r="H25" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="52">
         <f>SUM(I21,I22,I24,I23)</f>
         <v>3460151163</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="52">
         <f>SUM(J21,J22,J23,J24)</f>
         <v>2432064999.4399996</v>
       </c>
@@ -6443,556 +7429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374E7915-F07A-44AA-9ABC-A782FDAD552B}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.9140625" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="34">
-        <v>560859120.85000002</v>
-      </c>
-      <c r="E2" s="35">
-        <v>376327453.49000001</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="H2" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="34">
-        <v>67</v>
-      </c>
-      <c r="J2" s="9">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="36">
-        <f>I21/I23</f>
-        <v>0.83119892221458758</v>
-      </c>
-      <c r="E3" s="36">
-        <f>J21/J23</f>
-        <v>0.74919903609946803</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="H3" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="34">
-        <v>676</v>
-      </c>
-      <c r="J3" s="9">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="34">
-        <v>676</v>
-      </c>
-      <c r="E4" s="9">
-        <v>581</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="H4" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="34">
-        <v>16</v>
-      </c>
-      <c r="J4" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="36">
-        <f>I3/I7</f>
-        <v>0.78150289017341046</v>
-      </c>
-      <c r="E5" s="36">
-        <f>J3/J7</f>
-        <v>0.76548089591567847</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="H5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="34">
-        <v>106</v>
-      </c>
-      <c r="J5" s="9">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="H6" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="37">
-        <v>2718602121.5500002</v>
-      </c>
-      <c r="E7" s="37">
-        <v>1863387214.0999999</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="H7" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="34">
-        <v>865</v>
-      </c>
-      <c r="J7" s="9">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="38">
-        <v>2850578033.9499998</v>
-      </c>
-      <c r="E8" s="38">
-        <v>2260803296.1199999</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="37">
-        <v>601778469.14999998</v>
-      </c>
-      <c r="E9" s="37">
-        <v>319972560.66000003</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="34">
-        <v>865</v>
-      </c>
-      <c r="E10" s="9">
-        <v>759</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="26">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="37">
-        <f>(I12/J12)-1</f>
-        <v>0.45895716197830727</v>
-      </c>
-      <c r="E12" s="37">
-        <f>(J12/K12)-1</f>
-        <v>0.32368625742227941</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="37">
-        <v>2718602121.5500002</v>
-      </c>
-      <c r="J12" s="37">
-        <v>1863387214.0999999</v>
-      </c>
-      <c r="K12" s="19">
-        <v>1407725738.3699999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="37">
-        <f>(I13/J13)-1</f>
-        <v>0.88071898386763348</v>
-      </c>
-      <c r="E13" s="37">
-        <f>(J13/K13)-1</f>
-        <v>0.56307570200178536</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="37">
-        <v>601778469.14999998</v>
-      </c>
-      <c r="J13" s="37">
-        <v>319972560.66000003</v>
-      </c>
-      <c r="K13" s="19">
-        <v>204707014.66999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="37">
-        <f>I13/I14</f>
-        <v>0.2111075234506474</v>
-      </c>
-      <c r="E14" s="37">
-        <f>J13/J14</f>
-        <v>0.14153047335393498</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="38">
-        <v>2850578033.9499998</v>
-      </c>
-      <c r="J14" s="38">
-        <v>2260803296.1199999</v>
-      </c>
-      <c r="K14" s="19">
-        <v>1727047521.1199999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="38">
-        <v>3336011972.1300001</v>
-      </c>
-      <c r="J15" s="38">
-        <v>2734329189.8099999</v>
-      </c>
-      <c r="K15" s="19">
-        <v>1727047521.1199999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="37">
-        <f>I13/I15</f>
-        <v>0.18038858198874277</v>
-      </c>
-      <c r="E16" s="37">
-        <f>J13/J15</f>
-        <v>0.11702049696592455</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="37">
-        <f>I7</f>
-        <v>865</v>
-      </c>
-      <c r="E17" s="37">
-        <f>J12/J7</f>
-        <v>2455055.6180500658</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="1"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="28">
-        <v>2021</v>
-      </c>
-      <c r="J18" s="26">
-        <v>2020</v>
-      </c>
-      <c r="K18" s="26">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="39">
-        <v>50642035.729999997</v>
-      </c>
-      <c r="J19" s="38">
-        <v>37764009.530000001</v>
-      </c>
-      <c r="K19" s="19">
-        <v>39268957.659999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H20" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="39">
-        <v>90465741.25</v>
-      </c>
-      <c r="J20" s="38">
-        <v>79371051.310000002</v>
-      </c>
-      <c r="K20" s="19">
-        <v>77573399.709999993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H21" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="39">
-        <v>560859120.85000002</v>
-      </c>
-      <c r="J21" s="38">
-        <v>376327453.49000001</v>
-      </c>
-      <c r="K21" s="19">
-        <v>310080076.44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H22" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="39">
-        <v>-27207696.559999999</v>
-      </c>
-      <c r="J22" s="38">
-        <v>8843862.6899999995</v>
-      </c>
-      <c r="K22" s="19">
-        <v>-34230308.240000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H23" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="40">
-        <f>SUM(I19,I20,I21,I22)</f>
-        <v>674759201.2700001</v>
-      </c>
-      <c r="J23" s="40">
-        <f>SUM(J19,J20,J21,J22)</f>
-        <v>502306377.02000004</v>
-      </c>
-      <c r="K23" s="19">
-        <f>SUM(K19,K20,K21,K22)</f>
-        <v>392692125.56999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B17"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94934C14-95E4-495E-AC40-CB871012F3E4}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7007,10 +7448,10 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="16">
         <v>2020</v>
       </c>
@@ -7026,7 +7467,7 @@
       <c r="K1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7034,7 +7475,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -7055,15 +7496,15 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="37">
         <f>K21/K23</f>
         <v>0.55396045383602488</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="37">
         <f>L21/L23</f>
         <v>0.53243189123827717</v>
       </c>
@@ -7082,7 +7523,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -7105,15 +7546,15 @@
     </row>
     <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="37">
         <f>K3/K9</f>
         <v>0.46045960542268266</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="37">
         <f>L3/L9</f>
         <v>0.43070724063547194</v>
       </c>
@@ -7132,12 +7573,12 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="7"/>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="24" t="s">
         <v>60</v>
       </c>
       <c r="K6" s="38">
@@ -7156,7 +7597,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="24" t="s">
         <v>75</v>
       </c>
       <c r="K7" s="38">
@@ -7170,7 +7611,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -7183,7 +7624,7 @@
         <v>101450670</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="24" t="s">
         <v>76</v>
       </c>
       <c r="K8" s="38">
@@ -7197,7 +7638,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
@@ -7224,7 +7665,7 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -7240,7 +7681,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
@@ -7290,17 +7731,17 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="37">
         <f>K12/L12-1</f>
         <v>0.12884065723765059</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="37">
         <f>(L12/M12)-1</f>
         <v>0.11807903453978463</v>
       </c>
@@ -7324,15 +7765,15 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="37">
         <f>(K13/L13)-1</f>
         <v>0.49012049070545061</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="37">
         <f>(L13/M13)-1</f>
         <v>-0.18262721994284248</v>
       </c>
@@ -7354,15 +7795,15 @@
     </row>
     <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="B15" s="49"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="37">
         <f>K13/K14</f>
         <v>0.13203600983792496</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="37">
         <f>L13/L14</f>
         <v>0.10237284157977018</v>
       </c>
@@ -7386,10 +7827,10 @@
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -7405,27 +7846,27 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="37">
         <f>K13/K15</f>
         <v>4.1690846224529989E-2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="37">
         <f>L13/L15</f>
         <v>3.1345271327749225E-2</v>
       </c>
@@ -7447,15 +7888,15 @@
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="37">
         <f>K12/K9</f>
         <v>1577.7807919100628</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="37">
         <f>L12/L9</f>
         <v>1376.3674720861768</v>
       </c>
@@ -7536,12 +7977,354 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B18:B19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1238C2B-7074-4DC5-A886-CF3EF6AA84D4}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.9140625" customWidth="1"/>
+    <col min="3" max="3" width="20.4140625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.08203125" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="8" max="10" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="28">
+        <v>2021</v>
+      </c>
+      <c r="J16" s="26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H19" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
